--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="510">
   <si>
     <t>Ticker</t>
   </si>
@@ -1610,10 +1610,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1915,7 +1916,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1928,7 +1931,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1937,13 +1940,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>127.2</v>
+        <v>138.42</v>
       </c>
       <c r="C2" s="2">
-        <v>37.15808</v>
-      </c>
-      <c r="D2" s="2">
-        <v>155</v>
+        <v>39.20869460887641</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1954,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>13.76</v>
+        <v>15.795</v>
       </c>
       <c r="C3" s="2">
-        <v>8.992719999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1439</v>
+        <v>10.73300609431939</v>
+      </c>
+      <c r="D3" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1968,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>56.27</v>
+        <v>39.75</v>
       </c>
       <c r="C4" s="2">
-        <v>3.34818</v>
-      </c>
-      <c r="D4" s="2">
-        <v>351</v>
+        <v>2.445906670352723</v>
+      </c>
+      <c r="D4" s="3">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1982,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>195.71</v>
+        <v>272.15</v>
       </c>
       <c r="C5" s="2">
-        <v>3043.82909</v>
-      </c>
-      <c r="D5" s="2">
-        <v>101</v>
+        <v>4003.948443965012</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>149.28</v>
+        <v>228.805</v>
       </c>
       <c r="C6" s="2">
-        <v>263.55943</v>
-      </c>
-      <c r="D6" s="2">
-        <v>132</v>
+        <v>402.8046471196824</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2012,7 +2015,7 @@
       <c r="C7" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -2026,7 +2029,7 @@
       <c r="C8" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -2035,13 +2038,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>104.51</v>
+        <v>124.395</v>
       </c>
       <c r="C9" s="2">
-        <v>181.43548</v>
-      </c>
-      <c r="D9" s="2">
-        <v>189</v>
+        <v>217.7241513425747</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,13 +2052,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>337.23</v>
+        <v>270.7375</v>
       </c>
       <c r="C10" s="2">
-        <v>224.18599</v>
-      </c>
-      <c r="D10" s="2">
-        <v>58</v>
+        <v>178.7592799732821</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2063,13 +2066,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>610.01</v>
+        <v>351.54</v>
       </c>
       <c r="C11" s="2">
-        <v>277.73755</v>
-      </c>
-      <c r="D11" s="2">
-        <v>32</v>
+        <v>149.6620540214163</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2077,13 +2080,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>184.88</v>
+        <v>276.93</v>
       </c>
       <c r="C12" s="2">
-        <v>91.74886000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>107</v>
+        <v>135.0563904438983</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2094,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>73.75</v>
+        <v>57.63</v>
       </c>
       <c r="C13" s="2">
-        <v>39.33687</v>
-      </c>
-      <c r="D13" s="2">
-        <v>268</v>
+        <v>27.80096160095982</v>
+      </c>
+      <c r="D13" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,13 +2108,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>229.27</v>
+        <v>257.095</v>
       </c>
       <c r="C14" s="2">
-        <v>94.29985000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>86</v>
+        <v>105.0515221726643</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2119,13 +2122,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>224.01</v>
+        <v>296.895</v>
       </c>
       <c r="C15" s="2">
-        <v>47.91917</v>
-      </c>
-      <c r="D15" s="2">
-        <v>88</v>
+        <v>63.6996371492999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2133,13 +2136,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>78.02</v>
+        <v>99.58499999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>20.51497</v>
-      </c>
-      <c r="D16" s="2">
-        <v>253</v>
+        <v>26.90342402552863</v>
+      </c>
+      <c r="D16" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2147,13 +2150,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>79.64</v>
+        <v>115.09</v>
       </c>
       <c r="C17" s="2">
-        <v>41.88077</v>
-      </c>
-      <c r="D17" s="2">
-        <v>248</v>
+        <v>61.21790843341987</v>
+      </c>
+      <c r="D17" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2164,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>18.22</v>
+        <v>13.915</v>
       </c>
       <c r="C18" s="2">
-        <v>12.20064</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1086</v>
+        <v>9.869995626878049</v>
+      </c>
+      <c r="D18" s="3">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2178,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>82.55</v>
+        <v>110.93</v>
       </c>
       <c r="C19" s="2">
-        <v>48.24056</v>
-      </c>
-      <c r="D19" s="2">
-        <v>239</v>
+        <v>57.67873408970505</v>
+      </c>
+      <c r="D19" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2192,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>65.53</v>
+        <v>86.72</v>
       </c>
       <c r="C20" s="2">
-        <v>46.0047</v>
-      </c>
-      <c r="D20" s="2">
-        <v>302</v>
+        <v>46.63555732285925</v>
+      </c>
+      <c r="D20" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2206,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>7.14</v>
+        <v>5.71</v>
       </c>
       <c r="C21" s="2">
-        <v>1.04072</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2773</v>
+        <v>0.8097045540000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,13 +2220,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>167.68</v>
+        <v>241.435</v>
       </c>
       <c r="C22" s="2">
-        <v>8.8184</v>
-      </c>
-      <c r="D22" s="2">
-        <v>118</v>
+        <v>12.09508863137687</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2231,13 +2234,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>240.96</v>
+        <v>257.86</v>
       </c>
       <c r="C23" s="2">
-        <v>52.02326</v>
-      </c>
-      <c r="D23" s="2">
-        <v>82</v>
+        <v>66.31859668766526</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2248,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>114.41</v>
+        <v>89.37</v>
       </c>
       <c r="C24" s="2">
-        <v>17.25664</v>
-      </c>
-      <c r="D24" s="2">
-        <v>173</v>
+        <v>12.96369644735003</v>
+      </c>
+      <c r="D24" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,13 +2262,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>127.99</v>
+        <v>147.3302</v>
       </c>
       <c r="C25" s="2">
-        <v>15.02005</v>
-      </c>
-      <c r="D25" s="2">
-        <v>154</v>
+        <v>17.11086897888936</v>
+      </c>
+      <c r="D25" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2273,13 +2276,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>221.23</v>
+        <v>156.69</v>
       </c>
       <c r="C26" s="2">
-        <v>16.94381</v>
-      </c>
-      <c r="D26" s="2">
-        <v>89</v>
+        <v>11.4283389616346</v>
+      </c>
+      <c r="D26" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2287,13 +2290,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>35.61</v>
+        <v>51.39</v>
       </c>
       <c r="C27" s="2">
-        <v>4.55997</v>
-      </c>
-      <c r="D27" s="2">
-        <v>556</v>
+        <v>6.203070825775384</v>
+      </c>
+      <c r="D27" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2304,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>139.32</v>
+        <v>209.7275</v>
       </c>
       <c r="C28" s="2">
-        <v>36.45824</v>
-      </c>
-      <c r="D28" s="2">
-        <v>142</v>
+        <v>54.50306482144</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2318,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>110.34</v>
+        <v>160.62</v>
       </c>
       <c r="C29" s="2">
-        <v>9.68648</v>
-      </c>
-      <c r="D29" s="2">
-        <v>179</v>
+        <v>13.83135690796781</v>
+      </c>
+      <c r="D29" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2334,7 +2337,7 @@
       <c r="C30" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -2343,13 +2346,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>147.72</v>
+        <v>259.69</v>
       </c>
       <c r="C31" s="2">
-        <v>123.57278</v>
-      </c>
-      <c r="D31" s="2">
-        <v>134</v>
+        <v>205.3802624448181</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2360,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>9.65</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C32" s="2">
-        <v>13.94756</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2052</v>
+        <v>19.17227600590591</v>
+      </c>
+      <c r="D32" s="3">
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2374,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>128.92</v>
+        <v>214.5685</v>
       </c>
       <c r="C33" s="2">
-        <v>208.27012</v>
-      </c>
-      <c r="D33" s="2">
-        <v>153</v>
+        <v>349.9475092560195</v>
+      </c>
+      <c r="D33" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,13 +2388,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>157.16</v>
+        <v>209.45</v>
       </c>
       <c r="C34" s="2">
-        <v>36.27232</v>
-      </c>
-      <c r="D34" s="2">
-        <v>125</v>
+        <v>47.47494309533356</v>
+      </c>
+      <c r="D34" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>269.12</v>
+        <v>331.04</v>
       </c>
       <c r="C35" s="2">
-        <v>144.02711</v>
-      </c>
-      <c r="D35" s="2">
-        <v>73</v>
+        <v>178.4471261058918</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,13 +2416,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>357.58</v>
+        <v>498.08</v>
       </c>
       <c r="C36" s="2">
-        <v>36.18573000000001</v>
-      </c>
-      <c r="D36" s="2">
-        <v>55</v>
+        <v>46.07380013132727</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2427,13 +2430,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>206.45</v>
+        <v>174.16</v>
       </c>
       <c r="C37" s="2">
-        <v>96.23979</v>
-      </c>
-      <c r="D37" s="2">
-        <v>95</v>
+        <v>80.713163393</v>
+      </c>
+      <c r="D37" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2441,13 +2444,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>147.42</v>
+        <v>232.16</v>
       </c>
       <c r="C38" s="2">
-        <v>1523.44279</v>
-      </c>
-      <c r="D38" s="2">
-        <v>134</v>
+        <v>2441.966065391891</v>
+      </c>
+      <c r="D38" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2455,27 +2458,27 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>224.03</v>
+        <v>131.195</v>
       </c>
       <c r="C39" s="2">
-        <v>69.69575999999999</v>
-      </c>
-      <c r="D39" s="2">
-        <v>88</v>
+        <v>164.6263423463504</v>
+      </c>
+      <c r="D39" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2">
-        <v>287.2</v>
+      <c r="B40" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C40" s="2">
-        <v>24.94987</v>
-      </c>
-      <c r="D40" s="2">
-        <v>68</v>
+        <v>32.90701</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2488,7 +2491,7 @@
       <c r="C41" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -2497,13 +2500,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>324.1</v>
+        <v>356.065</v>
       </c>
       <c r="C42" s="2">
-        <v>64.89012</v>
-      </c>
-      <c r="D42" s="2">
-        <v>61</v>
+        <v>76.40089372684714</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2511,13 +2514,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>77.98999999999999</v>
+        <v>67.64</v>
       </c>
       <c r="C43" s="2">
-        <v>11.59871</v>
-      </c>
-      <c r="D43" s="2">
-        <v>253</v>
+        <v>9.483487747746802</v>
+      </c>
+      <c r="D43" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2528,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>34.47</v>
+        <v>24.4002</v>
       </c>
       <c r="C44" s="2">
-        <v>10.57262</v>
-      </c>
-      <c r="D44" s="2">
-        <v>574</v>
+        <v>8.657476705215172</v>
+      </c>
+      <c r="D44" s="3">
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,13 +2542,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>263.27</v>
+        <v>243.81</v>
       </c>
       <c r="C45" s="2">
-        <v>58.50062999999999</v>
-      </c>
-      <c r="D45" s="2">
-        <v>75</v>
+        <v>54.48601409386981</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2553,13 +2556,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>93.23</v>
+        <v>136.46</v>
       </c>
       <c r="C46" s="2">
-        <v>55.78046</v>
-      </c>
-      <c r="D46" s="2">
-        <v>212</v>
+        <v>165.4188577358128</v>
+      </c>
+      <c r="D46" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2570,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>79.83</v>
+        <v>76.295</v>
       </c>
       <c r="C47" s="2">
-        <v>22.58089</v>
-      </c>
-      <c r="D47" s="2">
-        <v>248</v>
+        <v>16.68133039490612</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,13 +2584,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>119.44</v>
+        <v>48.35</v>
       </c>
       <c r="C48" s="2">
-        <v>20.75574</v>
-      </c>
-      <c r="D48" s="2">
-        <v>165</v>
+        <v>8.285233042</v>
+      </c>
+      <c r="D48" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2595,13 +2598,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>113.46</v>
+        <v>168.52</v>
       </c>
       <c r="C49" s="2">
-        <v>16.84837</v>
-      </c>
-      <c r="D49" s="2">
-        <v>174</v>
+        <v>27.05776370934097</v>
+      </c>
+      <c r="D49" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2614,7 +2617,7 @@
       <c r="C50" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -2623,13 +2626,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>175.75</v>
+        <v>182.06</v>
       </c>
       <c r="C51" s="2">
-        <v>24.95916</v>
-      </c>
-      <c r="D51" s="2">
-        <v>112</v>
+        <v>25.363902327</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,13 +2640,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>944.3</v>
+        <v>348.43</v>
       </c>
       <c r="C52" s="2">
-        <v>389.74614</v>
-      </c>
-      <c r="D52" s="2">
-        <v>20</v>
+        <v>1618.907912283683</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2651,13 +2654,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>191.71</v>
+        <v>181.43</v>
       </c>
       <c r="C53" s="2">
-        <v>15.43865</v>
-      </c>
-      <c r="D53" s="2">
-        <v>103</v>
+        <v>13.99278348584024</v>
+      </c>
+      <c r="D53" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2665,13 +2668,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>131.35</v>
+        <v>130.92</v>
       </c>
       <c r="C54" s="2">
-        <v>25.5745</v>
-      </c>
-      <c r="D54" s="2">
-        <v>150</v>
+        <v>25.69191989225666</v>
+      </c>
+      <c r="D54" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2682,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>168.43</v>
+        <v>383.155</v>
       </c>
       <c r="C55" s="2">
-        <v>122.74262</v>
-      </c>
-      <c r="D55" s="2">
-        <v>117</v>
+        <v>262.3491476276816</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,13 +2696,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>2620.49</v>
+        <v>3458.38</v>
       </c>
       <c r="C56" s="2">
-        <v>45.40261</v>
-      </c>
-      <c r="D56" s="2">
-        <v>7</v>
+        <v>56.78074871651278</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2707,13 +2710,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>244.7</v>
+        <v>216.950249</v>
       </c>
       <c r="C57" s="2">
-        <v>148.03782</v>
-      </c>
-      <c r="D57" s="2">
-        <v>80</v>
+        <v>169.8011665378419</v>
+      </c>
+      <c r="D57" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2721,13 +2724,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>30.96</v>
+        <v>56.045</v>
       </c>
       <c r="C58" s="2">
-        <v>245.00914</v>
-      </c>
-      <c r="D58" s="2">
-        <v>639</v>
+        <v>408.0634578132289</v>
+      </c>
+      <c r="D58" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2738,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>36.15</v>
+        <v>18.92</v>
       </c>
       <c r="C59" s="2">
-        <v>18.33974</v>
-      </c>
-      <c r="D59" s="2">
-        <v>547</v>
+        <v>9.756778349225739</v>
+      </c>
+      <c r="D59" s="3">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2752,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>73.98999999999999</v>
+        <v>69.80500000000001</v>
       </c>
       <c r="C60" s="2">
-        <v>15.93715</v>
-      </c>
-      <c r="D60" s="2">
-        <v>267</v>
+        <v>14.93985375761799</v>
+      </c>
+      <c r="D60" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,13 +2766,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>232.3</v>
+        <v>195.32</v>
       </c>
       <c r="C61" s="2">
-        <v>67.46111000000001</v>
-      </c>
-      <c r="D61" s="2">
-        <v>85</v>
+        <v>56.05281481707756</v>
+      </c>
+      <c r="D61" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2777,13 +2780,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>25.57</v>
+        <v>24.295</v>
       </c>
       <c r="C62" s="2">
-        <v>12.64652</v>
-      </c>
-      <c r="D62" s="2">
-        <v>774</v>
+        <v>12.81066658781458</v>
+      </c>
+      <c r="D62" s="3">
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2794,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>55.08</v>
+        <v>26.7</v>
       </c>
       <c r="C63" s="2">
-        <v>26.48471</v>
-      </c>
-      <c r="D63" s="2">
-        <v>359</v>
+        <v>12.9762866389579</v>
+      </c>
+      <c r="D63" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,13 +2808,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>239.29</v>
+        <v>174.565</v>
       </c>
       <c r="C64" s="2">
-        <v>34.67267</v>
-      </c>
-      <c r="D64" s="2">
-        <v>82</v>
+        <v>25.62888710469336</v>
+      </c>
+      <c r="D64" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,13 +2822,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>304.13</v>
+        <v>300.96</v>
       </c>
       <c r="C65" s="2">
-        <v>8.872159999999999</v>
-      </c>
-      <c r="D65" s="2">
-        <v>65</v>
+        <v>8.2306316671638</v>
+      </c>
+      <c r="D65" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2833,13 +2836,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>49.06</v>
+        <v>117.565</v>
       </c>
       <c r="C66" s="2">
-        <v>37.73074</v>
-      </c>
-      <c r="D66" s="2">
-        <v>403</v>
+        <v>81.77115535465158</v>
+      </c>
+      <c r="D66" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,13 +2850,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>3275</v>
+        <v>5418.67</v>
       </c>
       <c r="C67" s="2">
-        <v>114.26433</v>
-      </c>
-      <c r="D67" s="2">
-        <v>6</v>
+        <v>174.2879188282322</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2861,13 +2864,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>32.24</v>
+        <v>45.13</v>
       </c>
       <c r="C68" s="2">
-        <v>32.44098</v>
-      </c>
-      <c r="D68" s="2">
-        <v>614</v>
+        <v>44.95741635685172</v>
+      </c>
+      <c r="D68" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2878,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>744.73</v>
+        <v>1086.72</v>
       </c>
       <c r="C69" s="2">
-        <v>110.78788</v>
-      </c>
-      <c r="D69" s="2">
-        <v>26</v>
+        <v>177.5294141293722</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2894,7 +2897,7 @@
       <c r="C70" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -2903,13 +2906,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>50.31</v>
+        <v>54.185</v>
       </c>
       <c r="C71" s="2">
-        <v>102.36866</v>
-      </c>
-      <c r="D71" s="2">
-        <v>393</v>
+        <v>111.2742589890781</v>
+      </c>
+      <c r="D71" s="3">
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2920,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>191.36</v>
+        <v>227.37</v>
       </c>
       <c r="C72" s="2">
-        <v>22.51294</v>
-      </c>
-      <c r="D72" s="2">
-        <v>103</v>
+        <v>26.63956497984616</v>
+      </c>
+      <c r="D72" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,13 +2934,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>353.08</v>
+        <v>501.12</v>
       </c>
       <c r="C73" s="2">
-        <v>770.70683</v>
-      </c>
-      <c r="D73" s="2">
-        <v>56</v>
+        <v>1075.172720545835</v>
+      </c>
+      <c r="D73" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2945,13 +2948,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>54.95</v>
+        <v>96.03</v>
       </c>
       <c r="C74" s="2">
-        <v>80.5008</v>
-      </c>
-      <c r="D74" s="2">
-        <v>360</v>
+        <v>142.9518845733727</v>
+      </c>
+      <c r="D74" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2962,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>32.9</v>
+        <v>45.155</v>
       </c>
       <c r="C75" s="2">
-        <v>7.73332</v>
-      </c>
-      <c r="D75" s="2">
-        <v>601</v>
+        <v>9.718754039015103</v>
+      </c>
+      <c r="D75" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2976,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>64.08</v>
+        <v>68.83499999999999</v>
       </c>
       <c r="C76" s="2">
-        <v>10.05673</v>
-      </c>
-      <c r="D76" s="2">
-        <v>309</v>
+        <v>10.888383474</v>
+      </c>
+      <c r="D76" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2990,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>48.89</v>
+        <v>119.73</v>
       </c>
       <c r="C77" s="2">
-        <v>93.56969000000001</v>
-      </c>
-      <c r="D77" s="2">
-        <v>405</v>
+        <v>211.2944364406213</v>
+      </c>
+      <c r="D77" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3004,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>29.52</v>
+        <v>17.085</v>
       </c>
       <c r="C78" s="2">
-        <v>14.10961</v>
-      </c>
-      <c r="D78" s="2">
-        <v>670</v>
+        <v>8.2563497301902</v>
+      </c>
+      <c r="D78" s="3">
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3018,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>106.83</v>
+        <v>207.1</v>
       </c>
       <c r="C79" s="2">
-        <v>26.33019</v>
-      </c>
-      <c r="D79" s="2">
-        <v>185</v>
+        <v>48.75450291070509</v>
+      </c>
+      <c r="D79" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3032,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>55.27</v>
+        <v>53.355</v>
       </c>
       <c r="C80" s="2">
-        <v>46.3741</v>
-      </c>
-      <c r="D80" s="2">
-        <v>358</v>
+        <v>44.80556056254417</v>
+      </c>
+      <c r="D80" s="3">
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,13 +3046,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>259.5</v>
+        <v>585.01</v>
       </c>
       <c r="C81" s="2">
-        <v>132.10749</v>
-      </c>
-      <c r="D81" s="2">
-        <v>76</v>
+        <v>272.5559755080648</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3057,13 +3060,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>222.91</v>
+        <v>313.05</v>
       </c>
       <c r="C82" s="2">
-        <v>90.94503</v>
-      </c>
-      <c r="D82" s="2">
-        <v>88</v>
+        <v>122.3746368135068</v>
+      </c>
+      <c r="D82" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3071,13 +3074,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>178.72</v>
+        <v>255.37</v>
       </c>
       <c r="C83" s="2">
-        <v>18.86497</v>
-      </c>
-      <c r="D83" s="2">
-        <v>110</v>
+        <v>26.35262891716051</v>
+      </c>
+      <c r="D83" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3088,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>82.69</v>
+        <v>163.22</v>
       </c>
       <c r="C84" s="2">
-        <v>25.20332</v>
-      </c>
-      <c r="D84" s="2">
-        <v>239</v>
+        <v>48.82310693240809</v>
+      </c>
+      <c r="D84" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,13 +3102,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>116.07</v>
+        <v>87.2</v>
       </c>
       <c r="C85" s="2">
-        <v>50.33826999999999</v>
-      </c>
-      <c r="D85" s="2">
-        <v>170</v>
+        <v>37.494741572</v>
+      </c>
+      <c r="D85" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3116,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>18.11</v>
+        <v>31.79</v>
       </c>
       <c r="C86" s="2">
-        <v>22.63292</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1093</v>
+        <v>42.25101625077122</v>
+      </c>
+      <c r="D86" s="3">
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,13 +3130,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>259.93</v>
+        <v>316.52</v>
       </c>
       <c r="C87" s="2">
-        <v>70.71708</v>
-      </c>
-      <c r="D87" s="2">
-        <v>76</v>
+        <v>86.44286900854496</v>
+      </c>
+      <c r="D87" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3141,13 +3144,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>213.19</v>
+        <v>138.645</v>
       </c>
       <c r="C88" s="2">
-        <v>28.55901</v>
-      </c>
-      <c r="D88" s="2">
-        <v>92</v>
+        <v>18.16266425603192</v>
+      </c>
+      <c r="D88" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3158,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>141.35</v>
+        <v>41.665</v>
       </c>
       <c r="C89" s="2">
-        <v>15.38668</v>
-      </c>
-      <c r="D89" s="2">
-        <v>140</v>
+        <v>4.678049020908961</v>
+      </c>
+      <c r="D89" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3174,7 +3177,7 @@
       <c r="C90" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3183,13 +3186,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>76.56</v>
+        <v>78.175</v>
       </c>
       <c r="C91" s="2">
-        <v>14.62729</v>
-      </c>
-      <c r="D91" s="2">
-        <v>258</v>
+        <v>12.07711589901042</v>
+      </c>
+      <c r="D91" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3200,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>29.61</v>
+        <v>59.67</v>
       </c>
       <c r="C92" s="2">
-        <v>13.80486</v>
-      </c>
-      <c r="D92" s="2">
-        <v>668</v>
+        <v>25.71763159424227</v>
+      </c>
+      <c r="D92" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3214,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>92.94</v>
+        <v>85.30500000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>22.89872</v>
-      </c>
-      <c r="D93" s="2">
-        <v>213</v>
+        <v>20.22855847347249</v>
+      </c>
+      <c r="D93" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,13 +3228,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>84.5</v>
+        <v>164.455</v>
       </c>
       <c r="C94" s="2">
-        <v>9.857010000000001</v>
-      </c>
-      <c r="D94" s="2">
-        <v>234</v>
+        <v>19.49145353951724</v>
+      </c>
+      <c r="D94" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,13 +3242,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>367.55</v>
+        <v>205.52</v>
       </c>
       <c r="C95" s="2">
-        <v>54.3681</v>
-      </c>
-      <c r="D95" s="2">
-        <v>53</v>
+        <v>29.85499022715102</v>
+      </c>
+      <c r="D95" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3253,13 +3256,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>258.8</v>
+        <v>274.335</v>
       </c>
       <c r="C96" s="2">
-        <v>75.73005000000001</v>
-      </c>
-      <c r="D96" s="2">
-        <v>76</v>
+        <v>73.61988105333334</v>
+      </c>
+      <c r="D96" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3270,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>102.8</v>
+        <v>166.46</v>
       </c>
       <c r="C97" s="2">
-        <v>16.13011</v>
-      </c>
-      <c r="D97" s="2">
-        <v>192</v>
+        <v>26.04884920212614</v>
+      </c>
+      <c r="D97" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3284,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>77.17</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="C98" s="2">
-        <v>63.53964</v>
-      </c>
-      <c r="D98" s="2">
-        <v>256</v>
+        <v>63.71137346542932</v>
+      </c>
+      <c r="D98" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3298,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>141.55</v>
+        <v>97.4425</v>
       </c>
       <c r="C99" s="2">
-        <v>17.56057</v>
-      </c>
-      <c r="D99" s="2">
-        <v>139</v>
+        <v>11.96139623954939</v>
+      </c>
+      <c r="D99" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3312,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>49.97</v>
+        <v>88.73</v>
       </c>
       <c r="C100" s="2">
-        <v>6.58968</v>
-      </c>
-      <c r="D100" s="2">
-        <v>396</v>
+        <v>11.34556367335577</v>
+      </c>
+      <c r="D100" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3326,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>42.1</v>
+        <v>29.315</v>
       </c>
       <c r="C101" s="2">
-        <v>169.45586</v>
-      </c>
-      <c r="D101" s="2">
-        <v>470</v>
+        <v>106.6203540268624</v>
+      </c>
+      <c r="D101" s="3">
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3340,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>211.62</v>
+        <v>275.44</v>
       </c>
       <c r="C102" s="2">
-        <v>76.18105</v>
-      </c>
-      <c r="D102" s="2">
-        <v>93</v>
+        <v>98.51586051409863</v>
+      </c>
+      <c r="D102" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,13 +3354,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>2242.95</v>
+        <v>37.53</v>
       </c>
       <c r="C103" s="2">
-        <v>61.557</v>
-      </c>
-      <c r="D103" s="2">
-        <v>8</v>
+        <v>50.1407792061424</v>
+      </c>
+      <c r="D103" s="3">
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3365,13 +3368,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>230.58</v>
+        <v>517.8099999999999</v>
       </c>
       <c r="C104" s="2">
-        <v>32.68353</v>
-      </c>
-      <c r="D104" s="2">
-        <v>85</v>
+        <v>71.67946660851169</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,13 +3382,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>58.15</v>
+        <v>70.13</v>
       </c>
       <c r="C105" s="2">
-        <v>16.96605</v>
-      </c>
-      <c r="D105" s="2">
-        <v>340</v>
+        <v>21.23238931507503</v>
+      </c>
+      <c r="D105" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3396,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>73.77</v>
+        <v>39.37</v>
       </c>
       <c r="C106" s="2">
-        <v>39.40801</v>
-      </c>
-      <c r="D106" s="2">
-        <v>268</v>
+        <v>19.63614454536776</v>
+      </c>
+      <c r="D106" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3410,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>28.77</v>
+        <v>37.995</v>
       </c>
       <c r="C107" s="2">
-        <v>18.1603</v>
-      </c>
-      <c r="D107" s="2">
-        <v>688</v>
+        <v>24.67841790671808</v>
+      </c>
+      <c r="D107" s="3">
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,13 +3424,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>118.09</v>
+        <v>247.315</v>
       </c>
       <c r="C108" s="2">
-        <v>44.9742</v>
-      </c>
-      <c r="D108" s="2">
-        <v>167</v>
+        <v>156.8799882285543</v>
+      </c>
+      <c r="D108" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3440,7 +3443,7 @@
       <c r="C109" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3449,13 +3452,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>335</v>
+        <v>82.66</v>
       </c>
       <c r="C110" s="2">
-        <v>16.59059</v>
-      </c>
-      <c r="D110" s="2">
-        <v>59</v>
+        <v>16.43079781280871</v>
+      </c>
+      <c r="D110" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3466,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>112.07</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C111" s="2">
-        <v>133.07281</v>
-      </c>
-      <c r="D111" s="2">
-        <v>176</v>
+        <v>115.3048740625048</v>
+      </c>
+      <c r="D111" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3480,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>610.78</v>
+        <v>852.96</v>
       </c>
       <c r="C112" s="2">
-        <v>270.41709</v>
-      </c>
-      <c r="D112" s="2">
-        <v>32</v>
+        <v>377.289000837346</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3491,13 +3494,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>11.62</v>
+        <v>3.0114</v>
       </c>
       <c r="C113" s="2">
-        <v>10.36122</v>
-      </c>
-      <c r="D113" s="2">
-        <v>1704</v>
+        <v>2.746299494202454</v>
+      </c>
+      <c r="D113" s="3">
+        <v>657</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3508,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>42.91</v>
+        <v>27.755</v>
       </c>
       <c r="C114" s="2">
-        <v>12.79146</v>
-      </c>
-      <c r="D114" s="2">
-        <v>461</v>
+        <v>8.511732724618616</v>
+      </c>
+      <c r="D114" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3522,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>47.39</v>
+        <v>39.095</v>
       </c>
       <c r="C115" s="2">
-        <v>45.50537</v>
-      </c>
-      <c r="D115" s="2">
-        <v>417</v>
+        <v>38.1011763818623</v>
+      </c>
+      <c r="D115" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3536,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>250.81</v>
+        <v>263.3999</v>
       </c>
       <c r="C116" s="2">
-        <v>245.29218</v>
-      </c>
-      <c r="D116" s="2">
-        <v>78</v>
+        <v>247.9583134933074</v>
+      </c>
+      <c r="D116" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3550,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>48.38</v>
+        <v>77.845</v>
       </c>
       <c r="C117" s="2">
-        <v>196.59095</v>
-      </c>
-      <c r="D117" s="2">
-        <v>409</v>
+        <v>308.6199828160478</v>
+      </c>
+      <c r="D117" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3564,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>32.96</v>
+        <v>36.545</v>
       </c>
       <c r="C118" s="2">
-        <v>66.12864</v>
-      </c>
-      <c r="D118" s="2">
-        <v>600</v>
+        <v>68.04248462451616</v>
+      </c>
+      <c r="D118" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,13 +3578,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>553.33</v>
+        <v>190.34</v>
       </c>
       <c r="C119" s="2">
-        <v>56.35894</v>
-      </c>
-      <c r="D119" s="2">
-        <v>35</v>
+        <v>77.15439059591003</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3594,7 +3597,7 @@
       <c r="C120" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3603,13 +3606,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>70.33</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C121" s="2">
-        <v>35.26434</v>
-      </c>
-      <c r="D121" s="2">
-        <v>281</v>
+        <v>41.12630609609074</v>
+      </c>
+      <c r="D121" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3617,13 +3620,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>45.15</v>
+        <v>66.88</v>
       </c>
       <c r="C122" s="2">
-        <v>31.81851</v>
-      </c>
-      <c r="D122" s="2">
-        <v>438</v>
+        <v>45.33485785040355</v>
+      </c>
+      <c r="D122" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3636,7 +3639,7 @@
       <c r="C123" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3645,13 +3648,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>75.09999999999999</v>
+        <v>78.11</v>
       </c>
       <c r="C124" s="2">
-        <v>96.64592999999999</v>
-      </c>
-      <c r="D124" s="2">
-        <v>263</v>
+        <v>99.47273187963458</v>
+      </c>
+      <c r="D124" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,13 +3662,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>144.31</v>
+        <v>150.825</v>
       </c>
       <c r="C125" s="2">
-        <v>271.59841</v>
-      </c>
-      <c r="D125" s="2">
-        <v>137</v>
+        <v>301.6255366452088</v>
+      </c>
+      <c r="D125" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3678,7 +3681,7 @@
       <c r="C126" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3687,13 +3690,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>47.49</v>
+        <v>58.23</v>
       </c>
       <c r="C127" s="2">
-        <v>39.73948</v>
-      </c>
-      <c r="D127" s="2">
-        <v>416</v>
+        <v>48.86091750571766</v>
+      </c>
+      <c r="D127" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,13 +3704,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>40.35</v>
+        <v>70.56</v>
       </c>
       <c r="C128" s="2">
-        <v>25.96375</v>
-      </c>
-      <c r="D128" s="2">
-        <v>490</v>
+        <v>47.05249548511595</v>
+      </c>
+      <c r="D128" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3715,13 +3718,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>70.89</v>
+        <v>41.105</v>
       </c>
       <c r="C129" s="2">
-        <v>30.48571</v>
-      </c>
-      <c r="D129" s="2">
-        <v>279</v>
+        <v>17.37909520473097</v>
+      </c>
+      <c r="D129" s="3">
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,27 +3732,27 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>363.67</v>
+        <v>466.64</v>
       </c>
       <c r="C130" s="2">
-        <v>104.73717</v>
-      </c>
-      <c r="D130" s="2">
-        <v>54</v>
+        <v>126.7767083371948</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="2">
-        <v>103.3</v>
+      <c r="B131" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C131" s="2">
-        <v>25.83099</v>
-      </c>
-      <c r="D131" s="2">
-        <v>191</v>
+        <v>50.34326</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,13 +3760,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>127.22</v>
+        <v>134.695</v>
       </c>
       <c r="C132" s="2">
-        <v>27.92444</v>
-      </c>
-      <c r="D132" s="2">
-        <v>155</v>
+        <v>30.27074827702448</v>
+      </c>
+      <c r="D132" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3771,13 +3774,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>135.91</v>
+        <v>174.88</v>
       </c>
       <c r="C133" s="2">
-        <v>15.28104</v>
-      </c>
-      <c r="D133" s="2">
-        <v>145</v>
+        <v>19.61647801520141</v>
+      </c>
+      <c r="D133" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3785,13 +3788,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>138.46</v>
+        <v>144.01</v>
       </c>
       <c r="C134" s="2">
-        <v>46.13271</v>
-      </c>
-      <c r="D134" s="2">
-        <v>143</v>
+        <v>42.45975575472238</v>
+      </c>
+      <c r="D134" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3802,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>217.49</v>
+        <v>230.54</v>
       </c>
       <c r="C135" s="2">
-        <v>160.70926</v>
-      </c>
-      <c r="D135" s="2">
-        <v>91</v>
+        <v>161.0547578937672</v>
+      </c>
+      <c r="D135" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3816,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>92.81999999999999</v>
+        <v>112.85</v>
       </c>
       <c r="C136" s="2">
-        <v>169.88992</v>
-      </c>
-      <c r="D136" s="2">
-        <v>213</v>
+        <v>200.6307535548506</v>
+      </c>
+      <c r="D136" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3832,7 +3835,7 @@
       <c r="C137" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3846,7 +3849,7 @@
       <c r="C138" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3854,14 +3857,14 @@
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="C139" s="2">
-        <v>2.44216</v>
-      </c>
-      <c r="D139" s="2">
-        <v>4333</v>
+      <c r="B139" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3872,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>134.81</v>
+        <v>152.585</v>
       </c>
       <c r="C140" s="2">
-        <v>40.82749</v>
-      </c>
-      <c r="D140" s="2">
-        <v>146</v>
+        <v>51.521800331</v>
+      </c>
+      <c r="D140" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,13 +3886,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>124.41</v>
+        <v>119.85</v>
       </c>
       <c r="C141" s="2">
-        <v>27.10545</v>
-      </c>
-      <c r="D141" s="2">
-        <v>159</v>
+        <v>24.35752531185122</v>
+      </c>
+      <c r="D141" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3897,13 +3900,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>143.62</v>
+        <v>200.12</v>
       </c>
       <c r="C142" s="2">
-        <v>20.09102</v>
-      </c>
-      <c r="D142" s="2">
-        <v>137</v>
+        <v>27.36343856204281</v>
+      </c>
+      <c r="D142" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3914,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>50.92</v>
+        <v>22.905</v>
       </c>
       <c r="C143" s="2">
-        <v>35.71514</v>
-      </c>
-      <c r="D143" s="2">
-        <v>388</v>
+        <v>16.6426187183132</v>
+      </c>
+      <c r="D143" s="3">
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,13 +3928,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>394.9</v>
+        <v>426.06</v>
       </c>
       <c r="C144" s="2">
-        <v>13.7745</v>
-      </c>
-      <c r="D144" s="2">
-        <v>50</v>
+        <v>14.45815334694042</v>
+      </c>
+      <c r="D144" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3944,7 +3947,7 @@
       <c r="C145" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3953,13 +3956,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>158.95</v>
+        <v>186.66</v>
       </c>
       <c r="C146" s="2">
-        <v>19.12402</v>
-      </c>
-      <c r="D146" s="2">
-        <v>124</v>
+        <v>22.01354287827061</v>
+      </c>
+      <c r="D146" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,13 +3970,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>108.61</v>
+        <v>128.85</v>
       </c>
       <c r="C147" s="2">
-        <v>22.40176</v>
-      </c>
-      <c r="D147" s="2">
-        <v>182</v>
+        <v>26.64780738765583</v>
+      </c>
+      <c r="D147" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3981,13 +3984,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>94.39</v>
+        <v>116.955</v>
       </c>
       <c r="C148" s="2">
-        <v>72.74748</v>
-      </c>
-      <c r="D148" s="2">
-        <v>209</v>
+        <v>90.44200203245759</v>
+      </c>
+      <c r="D148" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,13 +3998,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>107.58</v>
+        <v>114.94</v>
       </c>
       <c r="C149" s="2">
-        <v>9.822049999999999</v>
-      </c>
-      <c r="D149" s="2">
-        <v>184</v>
+        <v>8.225605604553733</v>
+      </c>
+      <c r="D149" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4009,13 +4012,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>44.09</v>
+        <v>36.505</v>
       </c>
       <c r="C150" s="2">
-        <v>28.24846</v>
-      </c>
-      <c r="D150" s="2">
-        <v>449</v>
+        <v>22.84940215241769</v>
+      </c>
+      <c r="D150" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4026,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>23.76</v>
+        <v>15.115</v>
       </c>
       <c r="C151" s="2">
-        <v>4.60097</v>
-      </c>
-      <c r="D151" s="2">
-        <v>833</v>
+        <v>2.669473611966299</v>
+      </c>
+      <c r="D151" s="3">
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,13 +4040,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>116.97</v>
+        <v>66.77</v>
       </c>
       <c r="C152" s="2">
-        <v>45.19416</v>
-      </c>
-      <c r="D152" s="2">
-        <v>169</v>
+        <v>26.29879789330019</v>
+      </c>
+      <c r="D152" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4051,13 +4054,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>137.14</v>
+        <v>204.24</v>
       </c>
       <c r="C153" s="2">
-        <v>36.88606</v>
-      </c>
-      <c r="D153" s="2">
-        <v>144</v>
+        <v>50.96912673105791</v>
+      </c>
+      <c r="D153" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4068,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>41.29</v>
+        <v>84.03</v>
       </c>
       <c r="C154" s="2">
-        <v>21.42951</v>
-      </c>
-      <c r="D154" s="2">
-        <v>479</v>
+        <v>37.9680016420978</v>
+      </c>
+      <c r="D154" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4082,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>192.12</v>
+        <v>264.94</v>
       </c>
       <c r="C155" s="2">
-        <v>54.78106</v>
-      </c>
-      <c r="D155" s="2">
-        <v>103</v>
+        <v>75.73154884611846</v>
+      </c>
+      <c r="D155" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,13 +4096,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>91.55</v>
+        <v>99.03</v>
       </c>
       <c r="C156" s="2">
-        <v>31.60487</v>
-      </c>
-      <c r="D156" s="2">
-        <v>216</v>
+        <v>35.5774219854487</v>
+      </c>
+      <c r="D156" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4107,13 +4110,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>228.38</v>
+        <v>219.405</v>
       </c>
       <c r="C157" s="2">
-        <v>28.14025</v>
-      </c>
-      <c r="D157" s="2">
-        <v>86</v>
+        <v>26.98298948159874</v>
+      </c>
+      <c r="D157" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,13 +4124,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>67.45</v>
+        <v>60.25</v>
       </c>
       <c r="C158" s="2">
-        <v>25.87171</v>
-      </c>
-      <c r="D158" s="2">
-        <v>293</v>
+        <v>23.3296381484416</v>
+      </c>
+      <c r="D158" s="3">
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4135,13 +4138,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>133.73</v>
+        <v>107.505</v>
       </c>
       <c r="C159" s="2">
-        <v>47.85482</v>
-      </c>
-      <c r="D159" s="2">
-        <v>148</v>
+        <v>39.15313942611203</v>
+      </c>
+      <c r="D159" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4149,13 +4152,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>84.84999999999999</v>
+        <v>62.5004</v>
       </c>
       <c r="C160" s="2">
-        <v>10.06016</v>
-      </c>
-      <c r="D160" s="2">
-        <v>233</v>
+        <v>7.217196003113279</v>
+      </c>
+      <c r="D160" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4166,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>89.55</v>
+        <v>135.58</v>
       </c>
       <c r="C161" s="2">
-        <v>51.05246</v>
-      </c>
-      <c r="D161" s="2">
-        <v>221</v>
+        <v>75.83737791517703</v>
+      </c>
+      <c r="D161" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4180,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>118.96</v>
+        <v>104.035</v>
       </c>
       <c r="C162" s="2">
-        <v>69.37147999999999</v>
-      </c>
-      <c r="D162" s="2">
-        <v>166</v>
+        <v>56.11553183648072</v>
+      </c>
+      <c r="D162" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,13 +4194,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>801.77</v>
+        <v>757.24</v>
       </c>
       <c r="C163" s="2">
-        <v>75.27291000000001</v>
-      </c>
-      <c r="D163" s="2">
-        <v>24</v>
+        <v>74.475125207</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4205,13 +4208,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>58.82</v>
+        <v>62.34</v>
       </c>
       <c r="C164" s="2">
-        <v>22.33542</v>
-      </c>
-      <c r="D164" s="2">
-        <v>336</v>
+        <v>23.349733862</v>
+      </c>
+      <c r="D164" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4222,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>59.65</v>
+        <v>66.56</v>
       </c>
       <c r="C165" s="2">
-        <v>20.83731</v>
-      </c>
-      <c r="D165" s="2">
-        <v>331</v>
+        <v>24.77749268138773</v>
+      </c>
+      <c r="D165" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4236,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>226.11</v>
+        <v>259.84</v>
       </c>
       <c r="C166" s="2">
-        <v>14.51278</v>
-      </c>
-      <c r="D166" s="2">
-        <v>87</v>
+        <v>16.576952222</v>
+      </c>
+      <c r="D166" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4252,7 +4255,7 @@
       <c r="C167" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4261,13 +4264,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>232.31</v>
+        <v>323.05</v>
       </c>
       <c r="C168" s="2">
-        <v>92.76138</v>
-      </c>
-      <c r="D168" s="2">
-        <v>85</v>
+        <v>124.4394692645513</v>
+      </c>
+      <c r="D168" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4278,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>102.01</v>
+        <v>92.44</v>
       </c>
       <c r="C169" s="2">
-        <v>21.57237</v>
-      </c>
-      <c r="D169" s="2">
-        <v>194</v>
+        <v>41.08244821572261</v>
+      </c>
+      <c r="D169" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4292,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>51.56</v>
+        <v>72.64</v>
       </c>
       <c r="C170" s="2">
-        <v>11.8444</v>
-      </c>
-      <c r="D170" s="2">
-        <v>384</v>
+        <v>16.67441057517083</v>
+      </c>
+      <c r="D170" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4306,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>69.18000000000001</v>
+        <v>86.02500000000001</v>
       </c>
       <c r="C171" s="2">
-        <v>41.95767</v>
-      </c>
-      <c r="D171" s="2">
-        <v>286</v>
+        <v>50.2133600899588</v>
+      </c>
+      <c r="D171" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4320,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>39.21</v>
+        <v>43.54</v>
       </c>
       <c r="C172" s="2">
-        <v>39.0311</v>
-      </c>
-      <c r="D172" s="2">
-        <v>505</v>
+        <v>43.99814167923729</v>
+      </c>
+      <c r="D172" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,13 +4334,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>120.37</v>
+        <v>152.18</v>
       </c>
       <c r="C173" s="2">
-        <v>17.50052</v>
-      </c>
-      <c r="D173" s="2">
-        <v>164</v>
+        <v>20.50788282761667</v>
+      </c>
+      <c r="D173" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4345,13 +4348,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>145.5</v>
+        <v>289.1501</v>
       </c>
       <c r="C174" s="2">
-        <v>20.20242</v>
-      </c>
-      <c r="D174" s="2">
-        <v>136</v>
+        <v>35.4474314726288</v>
+      </c>
+      <c r="D174" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4362,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>138.68</v>
+        <v>130.085</v>
       </c>
       <c r="C175" s="2">
-        <v>29.30001</v>
-      </c>
-      <c r="D175" s="2">
-        <v>142</v>
+        <v>27.607043486</v>
+      </c>
+      <c r="D175" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4376,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>11.01</v>
+        <v>13.3301</v>
       </c>
       <c r="C176" s="2">
-        <v>44.07253</v>
-      </c>
-      <c r="D176" s="2">
-        <v>1798</v>
+        <v>53.63334274336599</v>
+      </c>
+      <c r="D176" s="3">
+        <v>148</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4390,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>148.73</v>
+        <v>148.845</v>
       </c>
       <c r="C177" s="2">
-        <v>26.62043</v>
-      </c>
-      <c r="D177" s="2">
-        <v>133</v>
+        <v>42.53759713958969</v>
+      </c>
+      <c r="D177" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,27 +4404,27 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>62.29</v>
+        <v>41.805</v>
       </c>
       <c r="C178" s="2">
-        <v>35.60496</v>
-      </c>
-      <c r="D178" s="2">
-        <v>317</v>
+        <v>47.93049152885479</v>
+      </c>
+      <c r="D178" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>509</v>
+      <c r="B179" s="2">
+        <v>42.3904</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>509</v>
+      <c r="D179" s="3">
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4434,7 +4437,7 @@
       <c r="C180" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4443,13 +4446,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>38.15</v>
+        <v>51.875</v>
       </c>
       <c r="C181" s="2">
-        <v>54.70623000000001</v>
-      </c>
-      <c r="D181" s="2">
-        <v>519</v>
+        <v>72.71553108588404</v>
+      </c>
+      <c r="D181" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4460,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>272.21</v>
+        <v>293.9</v>
       </c>
       <c r="C182" s="2">
-        <v>68.43916</v>
-      </c>
-      <c r="D182" s="2">
-        <v>72</v>
+        <v>68.83925836099641</v>
+      </c>
+      <c r="D182" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4474,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>37.08</v>
+        <v>44.59</v>
       </c>
       <c r="C183" s="2">
-        <v>21.27705</v>
-      </c>
-      <c r="D183" s="2">
-        <v>534</v>
+        <v>25.65990517065793</v>
+      </c>
+      <c r="D183" s="3">
+        <v>44</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,13 +4488,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>170.82</v>
+        <v>260.34</v>
       </c>
       <c r="C184" s="2">
-        <v>10.19919</v>
-      </c>
-      <c r="D184" s="2">
-        <v>115</v>
+        <v>15.12653592778638</v>
+      </c>
+      <c r="D184" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4499,27 +4502,27 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>58.94</v>
+        <v>66.87</v>
       </c>
       <c r="C185" s="2">
-        <v>34.92098</v>
-      </c>
-      <c r="D185" s="2">
-        <v>335</v>
+        <v>34.63903954209903</v>
+      </c>
+      <c r="D185" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>509</v>
+      <c r="B186" s="2">
+        <v>67.685</v>
+      </c>
+      <c r="C186" s="2">
+        <v>36.90739648616221</v>
+      </c>
+      <c r="D186" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4530,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>31.25</v>
+        <v>48.145</v>
       </c>
       <c r="C187" s="2">
-        <v>21.28177</v>
-      </c>
-      <c r="D187" s="2">
-        <v>633</v>
+        <v>31.87557852399163</v>
+      </c>
+      <c r="D187" s="3">
+        <v>41</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4546,7 +4549,7 @@
       <c r="C188" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4555,27 +4558,27 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>38.52</v>
+        <v>71.33</v>
       </c>
       <c r="C189" s="2">
-        <v>5.05416</v>
-      </c>
-      <c r="D189" s="2">
-        <v>514</v>
+        <v>9.105283599663101</v>
+      </c>
+      <c r="D189" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B190" s="2">
-        <v>256.09</v>
-      </c>
-      <c r="C190" s="2">
-        <v>18.49075</v>
-      </c>
-      <c r="D190" s="2">
-        <v>77</v>
+      <c r="B190" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4583,13 +4586,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>55.88</v>
+        <v>13.08</v>
       </c>
       <c r="C191" s="2">
-        <v>6.97153</v>
-      </c>
-      <c r="D191" s="2">
-        <v>354</v>
+        <v>1.646446443045045</v>
+      </c>
+      <c r="D191" s="3">
+        <v>151</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4597,13 +4600,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>28.01</v>
+        <v>64.64</v>
       </c>
       <c r="C192" s="2">
-        <v>14.00059</v>
-      </c>
-      <c r="D192" s="2">
-        <v>706</v>
+        <v>30.70875350248182</v>
+      </c>
+      <c r="D192" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,13 +4614,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>29.94</v>
+        <v>73.94</v>
       </c>
       <c r="C193" s="2">
-        <v>14.00059</v>
-      </c>
-      <c r="D193" s="2">
-        <v>661</v>
+        <v>30.70875350248182</v>
+      </c>
+      <c r="D193" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4630,7 +4633,7 @@
       <c r="C194" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4639,13 +4642,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>99.12</v>
+        <v>101.295</v>
       </c>
       <c r="C195" s="2">
-        <v>8.090489999999999</v>
-      </c>
-      <c r="D195" s="2">
-        <v>199</v>
+        <v>8.798607039</v>
+      </c>
+      <c r="D195" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4656,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>18.92</v>
+        <v>45.09</v>
       </c>
       <c r="C196" s="2">
-        <v>8.238910000000001</v>
-      </c>
-      <c r="D196" s="2">
-        <v>1046</v>
+        <v>18.18722331898748</v>
+      </c>
+      <c r="D196" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4670,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>52.16</v>
+        <v>80.86</v>
       </c>
       <c r="C197" s="2">
-        <v>40.05416</v>
-      </c>
-      <c r="D197" s="2">
-        <v>379</v>
+        <v>60.78579671778738</v>
+      </c>
+      <c r="D197" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4684,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>68.89</v>
+        <v>55.56</v>
       </c>
       <c r="C198" s="2">
-        <v>24.21026</v>
-      </c>
-      <c r="D198" s="2">
-        <v>287</v>
+        <v>17.68461569296084</v>
+      </c>
+      <c r="D198" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4698,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>252.29</v>
+        <v>344.4704</v>
       </c>
       <c r="C199" s="2">
-        <v>68.84914999999999</v>
-      </c>
-      <c r="D199" s="2">
-        <v>78</v>
+        <v>93.24286457039555</v>
+      </c>
+      <c r="D199" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4712,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>120.59</v>
+        <v>316.235</v>
       </c>
       <c r="C200" s="2">
-        <v>131.24847</v>
-      </c>
-      <c r="D200" s="2">
-        <v>164</v>
+        <v>331.9815515020222</v>
+      </c>
+      <c r="D200" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4726,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>79.02</v>
+        <v>125.525</v>
       </c>
       <c r="C201" s="2">
-        <v>98.46222999999999</v>
-      </c>
-      <c r="D201" s="2">
-        <v>250</v>
+        <v>154.0427759783062</v>
+      </c>
+      <c r="D201" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4740,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>65.47</v>
+        <v>46.6444</v>
       </c>
       <c r="C202" s="2">
-        <v>38.05635</v>
-      </c>
-      <c r="D202" s="2">
-        <v>302</v>
+        <v>25.2917914964229</v>
+      </c>
+      <c r="D202" s="3">
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,13 +4754,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>122.36</v>
+        <v>142.51</v>
       </c>
       <c r="C203" s="2">
-        <v>11.51637</v>
-      </c>
-      <c r="D203" s="2">
-        <v>161</v>
+        <v>11.34621417079683</v>
+      </c>
+      <c r="D203" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4765,13 +4768,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>29.11</v>
+        <v>89.14</v>
       </c>
       <c r="C204" s="2">
-        <v>24.83592</v>
-      </c>
-      <c r="D204" s="2">
-        <v>680</v>
+        <v>75.79065560506261</v>
+      </c>
+      <c r="D204" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4782,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>33.75</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="C205" s="2">
-        <v>46.21999</v>
-      </c>
-      <c r="D205" s="2">
-        <v>586</v>
+        <v>77.4554746393739</v>
+      </c>
+      <c r="D205" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,13 +4796,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>136.64</v>
+        <v>315.7899</v>
       </c>
       <c r="C206" s="2">
-        <v>1698.98109</v>
-      </c>
-      <c r="D206" s="2">
-        <v>144</v>
+        <v>3746.022229288706</v>
+      </c>
+      <c r="D206" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4807,13 +4810,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>134.99</v>
+        <v>314.37</v>
       </c>
       <c r="C207" s="2">
-        <v>1698.98109</v>
-      </c>
-      <c r="D207" s="2">
-        <v>146</v>
+        <v>3746.022229288706</v>
+      </c>
+      <c r="D207" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4821,13 +4824,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>132.98</v>
+        <v>124.42</v>
       </c>
       <c r="C208" s="2">
-        <v>18.64335</v>
-      </c>
-      <c r="D208" s="2">
-        <v>148</v>
+        <v>17.41524388715423</v>
+      </c>
+      <c r="D208" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,27 +4838,27 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>120.16</v>
+        <v>80</v>
       </c>
       <c r="C209" s="2">
-        <v>31.28829</v>
-      </c>
-      <c r="D209" s="2">
-        <v>164</v>
+        <v>19.24489609691837</v>
+      </c>
+      <c r="D209" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B210" s="2">
-        <v>21.68</v>
-      </c>
-      <c r="C210" s="2">
-        <v>8.039669999999999</v>
-      </c>
-      <c r="D210" s="2">
-        <v>913</v>
+      <c r="B210" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,13 +4866,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>124.59</v>
+        <v>203.86</v>
       </c>
       <c r="C211" s="2">
-        <v>23.83794</v>
-      </c>
-      <c r="D211" s="2">
-        <v>158</v>
+        <v>39.58250259942467</v>
+      </c>
+      <c r="D211" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4877,13 +4880,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>350.83</v>
+        <v>901.62</v>
       </c>
       <c r="C212" s="2">
-        <v>114.41004</v>
-      </c>
-      <c r="D212" s="2">
-        <v>56</v>
+        <v>269.6357131919875</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4894,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>804.05</v>
+        <v>1027.81</v>
       </c>
       <c r="C213" s="2">
-        <v>39.90834</v>
-      </c>
-      <c r="D213" s="2">
-        <v>24</v>
+        <v>49.20738174539846</v>
+      </c>
+      <c r="D213" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4908,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>34.93</v>
+        <v>28.11</v>
       </c>
       <c r="C214" s="2">
-        <v>31.26416</v>
-      </c>
-      <c r="D214" s="2">
-        <v>566</v>
+        <v>23.72545461773341</v>
+      </c>
+      <c r="D214" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4922,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>48.7</v>
+        <v>81.595</v>
       </c>
       <c r="C215" s="2">
-        <v>6.75781</v>
-      </c>
-      <c r="D215" s="2">
-        <v>406</v>
+        <v>11.44588789082118</v>
+      </c>
+      <c r="D215" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4936,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>11.99</v>
+        <v>17.785</v>
       </c>
       <c r="C216" s="2">
-        <v>17.36242</v>
-      </c>
-      <c r="D216" s="2">
-        <v>1651</v>
+        <v>28.22047241406445</v>
+      </c>
+      <c r="D216" s="3">
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4950,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>3.86</v>
+        <v>6.47</v>
       </c>
       <c r="C217" s="2">
-        <v>1.35116</v>
-      </c>
-      <c r="D217" s="2">
-        <v>5130</v>
+        <v>2.2891</v>
+      </c>
+      <c r="D217" s="3">
+        <v>306</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4964,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>257.53</v>
+        <v>472.72</v>
       </c>
       <c r="C218" s="2">
-        <v>68.93069</v>
-      </c>
-      <c r="D218" s="2">
-        <v>76</v>
+        <v>107.7143732217075</v>
+      </c>
+      <c r="D218" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,27 +4978,27 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>326.47</v>
+        <v>344.6901</v>
       </c>
       <c r="C219" s="2">
-        <v>324.92313</v>
-      </c>
-      <c r="D219" s="2">
-        <v>60</v>
+        <v>344.835219689706</v>
+      </c>
+      <c r="D219" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B220" s="2">
-        <v>134.5</v>
+      <c r="B220" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C220" s="2">
-        <v>41.31286</v>
-      </c>
-      <c r="D220" s="2">
-        <v>147</v>
+        <v>46.07211</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5005,10 +5008,10 @@
       <c r="B221" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="C221" s="2">
+        <v>5.815894</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5017,13 +5020,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>78.28</v>
+        <v>139.67</v>
       </c>
       <c r="C222" s="2">
-        <v>23.54426</v>
-      </c>
-      <c r="D222" s="2">
-        <v>252</v>
+        <v>38.88564344007302</v>
+      </c>
+      <c r="D222" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5034,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>246.89</v>
+        <v>353.395</v>
       </c>
       <c r="C223" s="2">
-        <v>9.807319999999999</v>
-      </c>
-      <c r="D223" s="2">
-        <v>80</v>
+        <v>13.87263171117704</v>
+      </c>
+      <c r="D223" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5045,13 +5048,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>171.33</v>
+        <v>291.89</v>
       </c>
       <c r="C224" s="2">
-        <v>43.93592</v>
-      </c>
-      <c r="D224" s="2">
-        <v>115</v>
+        <v>67.9989076396219</v>
+      </c>
+      <c r="D224" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5059,13 +5062,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>68.37</v>
+        <v>74.925</v>
       </c>
       <c r="C225" s="2">
-        <v>16.40899</v>
-      </c>
-      <c r="D225" s="2">
-        <v>289</v>
+        <v>16.70852645358692</v>
+      </c>
+      <c r="D225" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5076,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>194.61</v>
+        <v>195.4</v>
       </c>
       <c r="C226" s="2">
-        <v>128.29677</v>
-      </c>
-      <c r="D226" s="2">
-        <v>101</v>
+        <v>124.4124974707289</v>
+      </c>
+      <c r="D226" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5090,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>16.22</v>
+        <v>24.6499</v>
       </c>
       <c r="C227" s="2">
-        <v>20.81026</v>
-      </c>
-      <c r="D227" s="2">
-        <v>1220</v>
+        <v>32.96296751338108</v>
+      </c>
+      <c r="D227" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5104,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>29.46</v>
+        <v>22.865</v>
       </c>
       <c r="C228" s="2">
-        <v>29.1144</v>
-      </c>
-      <c r="D228" s="2">
-        <v>672</v>
+        <v>21.26970100645056</v>
+      </c>
+      <c r="D228" s="3">
+        <v>86</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5118,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>45.43</v>
+        <v>43.235</v>
       </c>
       <c r="C229" s="2">
-        <v>6.53879</v>
-      </c>
-      <c r="D229" s="2">
-        <v>435</v>
+        <v>5.426174115590025</v>
+      </c>
+      <c r="D229" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5132,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>31.38</v>
+        <v>24.03</v>
       </c>
       <c r="C230" s="2">
-        <v>17.15984</v>
-      </c>
-      <c r="D230" s="2">
-        <v>631</v>
+        <v>13.26858811370342</v>
+      </c>
+      <c r="D230" s="3">
+        <v>82</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5146,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>71.91</v>
+        <v>76.63500000000001</v>
       </c>
       <c r="C231" s="2">
-        <v>9.343870000000001</v>
-      </c>
-      <c r="D231" s="2">
-        <v>275</v>
+        <v>9.133090404245895</v>
+      </c>
+      <c r="D231" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5160,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>17.99</v>
+        <v>18.425</v>
       </c>
       <c r="C232" s="2">
-        <v>12.69081</v>
-      </c>
-      <c r="D232" s="2">
-        <v>1100</v>
+        <v>12.729133065</v>
+      </c>
+      <c r="D232" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5174,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>185.74</v>
+        <v>183.46</v>
       </c>
       <c r="C233" s="2">
-        <v>37.98349</v>
-      </c>
-      <c r="D233" s="2">
-        <v>106</v>
+        <v>37.79514037625594</v>
+      </c>
+      <c r="D233" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5188,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>481.62</v>
+        <v>255.9215</v>
       </c>
       <c r="C234" s="2">
-        <v>59.29258</v>
-      </c>
-      <c r="D234" s="2">
-        <v>41</v>
+        <v>30.99196428025228</v>
+      </c>
+      <c r="D234" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5202,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>53.26</v>
+        <v>209.61</v>
       </c>
       <c r="C235" s="2">
-        <v>21.9295</v>
-      </c>
-      <c r="D235" s="2">
-        <v>371</v>
+        <v>83.69730206120698</v>
+      </c>
+      <c r="D235" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5216,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>161.96</v>
+        <v>302.39</v>
       </c>
       <c r="C236" s="2">
-        <v>147.88869</v>
-      </c>
-      <c r="D236" s="2">
-        <v>122</v>
+        <v>283.0284719886666</v>
+      </c>
+      <c r="D236" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,13 +5230,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>113.34</v>
+        <v>161.9884</v>
       </c>
       <c r="C237" s="2">
-        <v>64.87173</v>
-      </c>
-      <c r="D237" s="2">
-        <v>174</v>
+        <v>92.05533492467715</v>
+      </c>
+      <c r="D237" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5241,13 +5244,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>531.35</v>
+        <v>682.775</v>
       </c>
       <c r="C238" s="2">
-        <v>44.12952</v>
-      </c>
-      <c r="D238" s="2">
-        <v>37</v>
+        <v>56.06521515270932</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,13 +5258,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>204.84</v>
+        <v>180.49</v>
       </c>
       <c r="C239" s="2">
-        <v>15.49114</v>
-      </c>
-      <c r="D239" s="2">
-        <v>96</v>
+        <v>13.43697028108809</v>
+      </c>
+      <c r="D239" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5269,13 +5272,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>76.81999999999999</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="C240" s="2">
-        <v>19.61054</v>
-      </c>
-      <c r="D240" s="2">
-        <v>257</v>
+        <v>17.04833478115311</v>
+      </c>
+      <c r="D240" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,13 +5286,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>112.94</v>
+        <v>135.69</v>
       </c>
       <c r="C241" s="2">
-        <v>17.93487</v>
-      </c>
-      <c r="D241" s="2">
-        <v>175</v>
+        <v>21.02528022970767</v>
+      </c>
+      <c r="D241" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5297,27 +5300,27 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>54.7</v>
+        <v>100.885</v>
       </c>
       <c r="C242" s="2">
-        <v>12.25878</v>
-      </c>
-      <c r="D242" s="2">
-        <v>362</v>
+        <v>19.77166040566433</v>
+      </c>
+      <c r="D242" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>509</v>
+      <c r="B243" s="2">
+        <v>24.74</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>509</v>
+      <c r="D243" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5328,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>42.7</v>
+        <v>36.265</v>
       </c>
       <c r="C244" s="2">
-        <v>180.0232</v>
-      </c>
-      <c r="D244" s="2">
-        <v>463</v>
+        <v>173.4848985617947</v>
+      </c>
+      <c r="D244" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,13 +5342,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>573.9</v>
+        <v>673.295</v>
       </c>
       <c r="C245" s="2">
-        <v>160.65527</v>
-      </c>
-      <c r="D245" s="2">
-        <v>34</v>
+        <v>187.8920250631012</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5353,13 +5356,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>36.84</v>
+        <v>39.445</v>
       </c>
       <c r="C246" s="2">
-        <v>12.74728</v>
-      </c>
-      <c r="D246" s="2">
-        <v>537</v>
+        <v>20.74662689890481</v>
+      </c>
+      <c r="D246" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5370,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>31.22</v>
+        <v>24.57</v>
       </c>
       <c r="C247" s="2">
-        <v>11.95739</v>
-      </c>
-      <c r="D247" s="2">
-        <v>634</v>
+        <v>8.88203</v>
+      </c>
+      <c r="D247" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5384,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>99.42</v>
+        <v>74.5351</v>
       </c>
       <c r="C248" s="2">
-        <v>4.66503</v>
-      </c>
-      <c r="D248" s="2">
-        <v>199</v>
+        <v>3.167761012180332</v>
+      </c>
+      <c r="D248" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5398,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>215.28</v>
+        <v>224.98</v>
       </c>
       <c r="C249" s="2">
-        <v>39.2886</v>
-      </c>
-      <c r="D249" s="2">
-        <v>91</v>
+        <v>38.21021210715905</v>
+      </c>
+      <c r="D249" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5412,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>73.31</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C250" s="2">
-        <v>29.67567</v>
-      </c>
-      <c r="D250" s="2">
-        <v>270</v>
+        <v>32.05135617597578</v>
+      </c>
+      <c r="D250" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5426,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>65.45</v>
+        <v>80.8</v>
       </c>
       <c r="C251" s="2">
-        <v>19.11072</v>
-      </c>
-      <c r="D251" s="2">
-        <v>302</v>
+        <v>23.673762618</v>
+      </c>
+      <c r="D251" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5440,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>310.42</v>
+        <v>577.5599999999999</v>
       </c>
       <c r="C252" s="2">
-        <v>109.29006</v>
-      </c>
-      <c r="D252" s="2">
-        <v>63</v>
+        <v>205.5474418248666</v>
+      </c>
+      <c r="D252" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5454,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>452</v>
+        <v>250.09</v>
       </c>
       <c r="C253" s="2">
-        <v>35.23277</v>
-      </c>
-      <c r="D253" s="2">
-        <v>43</v>
+        <v>18.05244220194273</v>
+      </c>
+      <c r="D253" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5468,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>249.61</v>
+        <v>252.28</v>
       </c>
       <c r="C254" s="2">
-        <v>75.10411999999999</v>
-      </c>
-      <c r="D254" s="2">
-        <v>79</v>
+        <v>72.98045835771767</v>
+      </c>
+      <c r="D254" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5482,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>15.21</v>
+        <v>27.125</v>
       </c>
       <c r="C255" s="2">
-        <v>6.83772</v>
-      </c>
-      <c r="D255" s="2">
-        <v>1301</v>
+        <v>12.1688397634763</v>
+      </c>
+      <c r="D255" s="3">
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5496,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>127.29</v>
+        <v>135.425</v>
       </c>
       <c r="C256" s="2">
-        <v>16.04165</v>
-      </c>
-      <c r="D256" s="2">
-        <v>155</v>
+        <v>16.02222280887536</v>
+      </c>
+      <c r="D256" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5510,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>186.62</v>
+        <v>196.925</v>
       </c>
       <c r="C257" s="2">
-        <v>19.24851</v>
-      </c>
-      <c r="D257" s="2">
-        <v>106</v>
+        <v>19.00367671901568</v>
+      </c>
+      <c r="D257" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5524,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>56.08</v>
+        <v>120.85</v>
       </c>
       <c r="C258" s="2">
-        <v>38.15235</v>
-      </c>
-      <c r="D258" s="2">
-        <v>353</v>
+        <v>73.31182824096813</v>
+      </c>
+      <c r="D258" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,13 +5538,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>164.69</v>
+        <v>185.31</v>
       </c>
       <c r="C259" s="2">
-        <v>11.99408</v>
-      </c>
-      <c r="D259" s="2">
-        <v>120</v>
+        <v>13.41365465807344</v>
+      </c>
+      <c r="D259" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5549,27 +5552,27 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>154.42</v>
+        <v>205.39</v>
       </c>
       <c r="C260" s="2">
-        <v>371.73196</v>
-      </c>
-      <c r="D260" s="2">
-        <v>128</v>
+        <v>499.4950113846255</v>
+      </c>
+      <c r="D260" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B261" s="2">
-        <v>28.99</v>
+      <c r="B261" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C261" s="2">
-        <v>9.244</v>
-      </c>
-      <c r="D261" s="2">
-        <v>683</v>
+        <v>13.35858</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,13 +5580,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>158.52</v>
+        <v>326.355</v>
       </c>
       <c r="C262" s="2">
-        <v>458.28264</v>
-      </c>
-      <c r="D262" s="2">
-        <v>124</v>
+        <v>879.5356727771565</v>
+      </c>
+      <c r="D262" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5591,13 +5594,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>53.7</v>
+        <v>83.44</v>
       </c>
       <c r="C263" s="2">
-        <v>18.39331</v>
-      </c>
-      <c r="D263" s="2">
-        <v>368</v>
+        <v>29.031498428</v>
+      </c>
+      <c r="D263" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5608,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>13.26</v>
+        <v>21.085</v>
       </c>
       <c r="C264" s="2">
-        <v>12.41481</v>
-      </c>
-      <c r="D264" s="2">
-        <v>1493</v>
+        <v>23.18082585939895</v>
+      </c>
+      <c r="D264" s="3">
+        <v>93</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,13 +5622,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>144.33</v>
+        <v>205.35</v>
       </c>
       <c r="C265" s="2">
-        <v>25.20002</v>
-      </c>
-      <c r="D265" s="2">
-        <v>137</v>
+        <v>35.00086642131561</v>
+      </c>
+      <c r="D265" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5633,13 +5636,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>36.23</v>
+        <v>23.705</v>
       </c>
       <c r="C266" s="2">
-        <v>44.4375</v>
-      </c>
-      <c r="D266" s="2">
-        <v>546</v>
+        <v>28.58528396474296</v>
+      </c>
+      <c r="D266" s="3">
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5650,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>20.24</v>
+        <v>20.165</v>
       </c>
       <c r="C267" s="2">
-        <v>12.54625</v>
-      </c>
-      <c r="D267" s="2">
-        <v>978</v>
+        <v>13.53710974</v>
+      </c>
+      <c r="D267" s="3">
+        <v>98</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,13 +5664,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>534.4299999999999</v>
+        <v>1266.6599</v>
       </c>
       <c r="C268" s="2">
-        <v>72.64631</v>
-      </c>
-      <c r="D268" s="2">
-        <v>37</v>
+        <v>166.2980466100339</v>
+      </c>
+      <c r="D268" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5675,13 +5678,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>119.94</v>
+        <v>100.365</v>
       </c>
       <c r="C269" s="2">
-        <v>40.53265</v>
-      </c>
-      <c r="D269" s="2">
-        <v>165</v>
+        <v>33.11283149798331</v>
+      </c>
+      <c r="D269" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5689,13 +5692,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>17.7</v>
+        <v>27.25</v>
       </c>
       <c r="C270" s="2">
-        <v>39.3431</v>
-      </c>
-      <c r="D270" s="2">
-        <v>1118</v>
+        <v>59.81268547313476</v>
+      </c>
+      <c r="D270" s="3">
+        <v>72</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5706,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>67.22</v>
+        <v>38.54</v>
       </c>
       <c r="C271" s="2">
-        <v>10.66568</v>
-      </c>
-      <c r="D271" s="2">
-        <v>294</v>
+        <v>5.602138720471796</v>
+      </c>
+      <c r="D271" s="3">
+        <v>51</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5720,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>58.61</v>
+        <v>70.02500000000001</v>
       </c>
       <c r="C272" s="2">
-        <v>253.39528</v>
-      </c>
-      <c r="D272" s="2">
-        <v>337</v>
+        <v>302.0159494125238</v>
+      </c>
+      <c r="D272" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5734,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>44.58</v>
+        <v>62.245</v>
       </c>
       <c r="C273" s="2">
-        <v>32.0671</v>
-      </c>
-      <c r="D273" s="2">
-        <v>444</v>
+        <v>39.42017545833039</v>
+      </c>
+      <c r="D273" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5748,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>24.65</v>
+        <v>21.2968</v>
       </c>
       <c r="C274" s="2">
-        <v>2.72905</v>
-      </c>
-      <c r="D274" s="2">
-        <v>803</v>
+        <v>2.450211904893103</v>
+      </c>
+      <c r="D274" s="3">
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5764,7 +5767,7 @@
       <c r="C275" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5773,27 +5776,27 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>68.84</v>
+        <v>107.645</v>
       </c>
       <c r="C276" s="2">
-        <v>15.36857</v>
-      </c>
-      <c r="D276" s="2">
-        <v>287</v>
+        <v>22.33576575406793</v>
+      </c>
+      <c r="D276" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>509</v>
+      <c r="B277" s="2">
+        <v>53.17</v>
+      </c>
+      <c r="C277" s="2">
+        <v>4.089860645209373</v>
+      </c>
+      <c r="D277" s="3">
+        <v>37</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5804,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>108.49</v>
+        <v>185.73</v>
       </c>
       <c r="C278" s="2">
-        <v>14.91807</v>
-      </c>
-      <c r="D278" s="2">
-        <v>182</v>
+        <v>23.78617510693762</v>
+      </c>
+      <c r="D278" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5818,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>26.17</v>
+        <v>10.925</v>
       </c>
       <c r="C279" s="2">
-        <v>3.48897</v>
-      </c>
-      <c r="D279" s="2">
-        <v>756</v>
+        <v>1.487090392642729</v>
+      </c>
+      <c r="D279" s="3">
+        <v>181</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,13 +5832,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>139.58</v>
+        <v>104.4</v>
       </c>
       <c r="C280" s="2">
-        <v>44.1619</v>
-      </c>
-      <c r="D280" s="2">
-        <v>141</v>
+        <v>26.98088713454968</v>
+      </c>
+      <c r="D280" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5843,13 +5846,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>216.6</v>
+        <v>253.06</v>
       </c>
       <c r="C281" s="2">
-        <v>18.38934</v>
-      </c>
-      <c r="D281" s="2">
-        <v>91</v>
+        <v>21.14447428640234</v>
+      </c>
+      <c r="D281" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5857,13 +5860,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>195.81</v>
+        <v>297.66</v>
       </c>
       <c r="C282" s="2">
-        <v>37.11387999999999</v>
-      </c>
-      <c r="D282" s="2">
-        <v>101</v>
+        <v>55.19929577783337</v>
+      </c>
+      <c r="D282" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5871,13 +5874,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>401.27</v>
+        <v>424.88</v>
       </c>
       <c r="C283" s="2">
-        <v>194.57201</v>
-      </c>
-      <c r="D283" s="2">
-        <v>49</v>
+        <v>197.7575438758332</v>
+      </c>
+      <c r="D283" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5885,13 +5888,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>45.4</v>
+        <v>30.02</v>
       </c>
       <c r="C284" s="2">
-        <v>12.14896</v>
-      </c>
-      <c r="D284" s="2">
-        <v>436</v>
+        <v>7.736572393701245</v>
+      </c>
+      <c r="D284" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5902,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>598.05</v>
+        <v>1071.495</v>
       </c>
       <c r="C285" s="2">
-        <v>567.7331899999999</v>
-      </c>
-      <c r="D285" s="2">
-        <v>33</v>
+        <v>1017.686619892689</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5916,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>448.02</v>
+        <v>483.26</v>
       </c>
       <c r="C286" s="2">
-        <v>111.15319</v>
-      </c>
-      <c r="D286" s="2">
-        <v>44</v>
+        <v>111.897033668682</v>
+      </c>
+      <c r="D286" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5930,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>24.33</v>
+        <v>45.92</v>
       </c>
       <c r="C287" s="2">
-        <v>4.12787</v>
-      </c>
-      <c r="D287" s="2">
-        <v>813</v>
+        <v>8.763787184383899</v>
+      </c>
+      <c r="D287" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5944,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>51.38</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="C288" s="2">
-        <v>13.1111</v>
-      </c>
-      <c r="D288" s="2">
-        <v>385</v>
+        <v>16.71619417317438</v>
+      </c>
+      <c r="D288" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5958,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>207.83</v>
+        <v>241.465</v>
       </c>
       <c r="C289" s="2">
-        <v>119.52565</v>
-      </c>
-      <c r="D289" s="2">
-        <v>95</v>
+        <v>135.7895106533877</v>
+      </c>
+      <c r="D289" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,13 +5972,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>703.17</v>
+        <v>175.16</v>
       </c>
       <c r="C290" s="2">
-        <v>92.67218</v>
-      </c>
-      <c r="D290" s="2">
-        <v>28</v>
+        <v>220.1318283937329</v>
+      </c>
+      <c r="D290" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,13 +5986,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>29.07</v>
+        <v>41.565</v>
       </c>
       <c r="C291" s="2">
-        <v>17.32907</v>
-      </c>
-      <c r="D291" s="2">
-        <v>681</v>
+        <v>21.84463012690645</v>
+      </c>
+      <c r="D291" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +6000,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>46.39</v>
+        <v>66.36</v>
       </c>
       <c r="C292" s="2">
-        <v>34.94880999999999</v>
-      </c>
-      <c r="D292" s="2">
-        <v>426</v>
+        <v>45.24015877037341</v>
+      </c>
+      <c r="D292" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6014,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>100.96</v>
+        <v>41.64</v>
       </c>
       <c r="C293" s="2">
-        <v>14.63184</v>
-      </c>
-      <c r="D293" s="2">
-        <v>196</v>
+        <v>5.964285873017752</v>
+      </c>
+      <c r="D293" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6028,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>92.58</v>
+        <v>42.72</v>
       </c>
       <c r="C294" s="2">
-        <v>30.02941</v>
-      </c>
-      <c r="D294" s="2">
-        <v>213</v>
+        <v>14.03366090179624</v>
+      </c>
+      <c r="D294" s="3">
+        <v>46</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6042,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>85.19</v>
+        <v>144.22</v>
       </c>
       <c r="C295" s="2">
-        <v>19.62142</v>
-      </c>
-      <c r="D295" s="2">
-        <v>232</v>
+        <v>32.915661728983</v>
+      </c>
+      <c r="D295" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6053,13 +6056,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>412.16</v>
+        <v>577.95</v>
       </c>
       <c r="C296" s="2">
-        <v>386.5137800000001</v>
-      </c>
-      <c r="D296" s="2">
-        <v>48</v>
+        <v>516.9761895793223</v>
+      </c>
+      <c r="D296" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6070,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>127.13</v>
+        <v>136.57</v>
       </c>
       <c r="C297" s="2">
-        <v>14.83448</v>
-      </c>
-      <c r="D297" s="2">
-        <v>155</v>
+        <v>15.715881639</v>
+      </c>
+      <c r="D297" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6084,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>209.4</v>
+        <v>314.7</v>
       </c>
       <c r="C298" s="2">
-        <v>61.49897</v>
-      </c>
-      <c r="D298" s="2">
-        <v>94</v>
+        <v>84.1953707526559</v>
+      </c>
+      <c r="D298" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6098,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>64</v>
+        <v>63.97</v>
       </c>
       <c r="C299" s="2">
-        <v>14.36806</v>
-      </c>
-      <c r="D299" s="2">
-        <v>309</v>
+        <v>13.34652096372052</v>
+      </c>
+      <c r="D299" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6112,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>285.53</v>
+        <v>311.855</v>
       </c>
       <c r="C300" s="2">
-        <v>207.10691</v>
-      </c>
-      <c r="D300" s="2">
-        <v>69</v>
+        <v>225.1974484468677</v>
+      </c>
+      <c r="D300" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6126,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>86.08</v>
+        <v>65.36499999999999</v>
       </c>
       <c r="C301" s="2">
-        <v>46.57318</v>
-      </c>
-      <c r="D301" s="2">
-        <v>230</v>
+        <v>35.7992005935899</v>
+      </c>
+      <c r="D301" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6140,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>457.89</v>
+        <v>824.3099999999999</v>
       </c>
       <c r="C302" s="2">
-        <v>60.92798000000001</v>
-      </c>
-      <c r="D302" s="2">
-        <v>43</v>
+        <v>101.0123711796472</v>
+      </c>
+      <c r="D302" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,13 +6154,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>374.61</v>
+        <v>515.2825</v>
       </c>
       <c r="C303" s="2">
-        <v>68.55363</v>
-      </c>
-      <c r="D303" s="2">
-        <v>52</v>
+        <v>90.9215544626165</v>
+      </c>
+      <c r="D303" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6165,13 +6168,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>71.09</v>
+        <v>54.005</v>
       </c>
       <c r="C304" s="2">
-        <v>96.74607</v>
-      </c>
-      <c r="D304" s="2">
-        <v>278</v>
+        <v>70.07937124910239</v>
+      </c>
+      <c r="D304" s="3">
+        <v>36</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6182,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>79.34999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C305" s="2">
-        <v>105.50807</v>
-      </c>
-      <c r="D305" s="2">
-        <v>249</v>
+        <v>125.2656120281948</v>
+      </c>
+      <c r="D305" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6196,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>64.09</v>
+        <v>81.14</v>
       </c>
       <c r="C306" s="2">
-        <v>47.43879</v>
-      </c>
-      <c r="D306" s="2">
-        <v>308</v>
+        <v>53.60083158619958</v>
+      </c>
+      <c r="D306" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6210,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>41.42</v>
+        <v>37.17</v>
       </c>
       <c r="C307" s="2">
-        <v>14.14838</v>
-      </c>
-      <c r="D307" s="2">
-        <v>478</v>
+        <v>10.27016658240482</v>
+      </c>
+      <c r="D307" s="3">
+        <v>53</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6224,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>92.3</v>
+        <v>108.63</v>
       </c>
       <c r="C308" s="2">
-        <v>5.87786</v>
-      </c>
-      <c r="D308" s="2">
-        <v>214</v>
+        <v>6.712563264975343</v>
+      </c>
+      <c r="D308" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,13 +6238,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>67.09</v>
+        <v>68.95</v>
       </c>
       <c r="C309" s="2">
-        <v>17.99284</v>
-      </c>
-      <c r="D309" s="2">
-        <v>295</v>
+        <v>18.48641146835054</v>
+      </c>
+      <c r="D309" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6249,13 +6252,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>261.68</v>
+        <v>182.86</v>
       </c>
       <c r="C310" s="2">
-        <v>9.9191</v>
-      </c>
-      <c r="D310" s="2">
-        <v>75</v>
+        <v>6.734733916485514</v>
+      </c>
+      <c r="D310" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,13 +6266,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>469.39</v>
+        <v>638.115</v>
       </c>
       <c r="C311" s="2">
-        <v>29.01166</v>
-      </c>
-      <c r="D311" s="2">
-        <v>42</v>
+        <v>38.14487190251236</v>
+      </c>
+      <c r="D311" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6277,13 +6280,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>195.67</v>
+        <v>185.47</v>
       </c>
       <c r="C312" s="2">
-        <v>96.47948</v>
-      </c>
-      <c r="D312" s="2">
-        <v>101</v>
+        <v>90.88314666421576</v>
+      </c>
+      <c r="D312" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6294,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>103.37</v>
+        <v>160.17</v>
       </c>
       <c r="C313" s="2">
-        <v>57.09301</v>
-      </c>
-      <c r="D313" s="2">
-        <v>191</v>
+        <v>84.99600938305754</v>
+      </c>
+      <c r="D313" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,13 +6308,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>53.92</v>
+        <v>77.7</v>
       </c>
       <c r="C314" s="2">
-        <v>56.1006</v>
-      </c>
-      <c r="D314" s="2">
-        <v>367</v>
+        <v>75.87546690219747</v>
+      </c>
+      <c r="D314" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6319,13 +6322,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>41.3</v>
+        <v>58.575</v>
       </c>
       <c r="C315" s="2">
-        <v>73.04510999999999</v>
-      </c>
-      <c r="D315" s="2">
-        <v>479</v>
+        <v>98.38693661298142</v>
+      </c>
+      <c r="D315" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6333,13 +6336,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>35.68</v>
+        <v>24.145</v>
       </c>
       <c r="C316" s="2">
-        <v>11.66149</v>
-      </c>
-      <c r="D316" s="2">
-        <v>554</v>
+        <v>7.719359088779832</v>
+      </c>
+      <c r="D316" s="3">
+        <v>82</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6350,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>143.02</v>
+        <v>165.825</v>
       </c>
       <c r="C317" s="2">
-        <v>54.3043</v>
-      </c>
-      <c r="D317" s="2">
-        <v>138</v>
+        <v>49.53027245957291</v>
+      </c>
+      <c r="D317" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,27 +6364,27 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>103.75</v>
+        <v>104.675</v>
       </c>
       <c r="C318" s="2">
-        <v>262.90489</v>
-      </c>
-      <c r="D318" s="2">
-        <v>190</v>
+        <v>259.9173826938237</v>
+      </c>
+      <c r="D318" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B319" s="2">
-        <v>24.09</v>
+      <c r="B319" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C319" s="2">
-        <v>14.09861</v>
-      </c>
-      <c r="D319" s="2">
-        <v>822</v>
+        <v>15.97116</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6392,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>82.28</v>
+        <v>179.7064</v>
       </c>
       <c r="C320" s="2">
-        <v>135.04712</v>
-      </c>
-      <c r="D320" s="2">
-        <v>240</v>
+        <v>285.6942156327467</v>
+      </c>
+      <c r="D320" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,13 +6406,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>506.68</v>
+        <v>580.16</v>
       </c>
       <c r="C321" s="2">
-        <v>40.07392</v>
-      </c>
-      <c r="D321" s="2">
-        <v>39</v>
+        <v>43.32846751738383</v>
+      </c>
+      <c r="D321" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6417,13 +6420,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>374.23</v>
+        <v>487.28</v>
       </c>
       <c r="C322" s="2">
-        <v>2781.37553</v>
-      </c>
-      <c r="D322" s="2">
-        <v>52</v>
+        <v>3604.108568481211</v>
+      </c>
+      <c r="D322" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6431,13 +6434,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>324.52</v>
+        <v>379.44</v>
       </c>
       <c r="C323" s="2">
-        <v>53.86009</v>
-      </c>
-      <c r="D323" s="2">
-        <v>61</v>
+        <v>62.07504597550828</v>
+      </c>
+      <c r="D323" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,13 +6448,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>132.65</v>
+        <v>206.665</v>
       </c>
       <c r="C324" s="2">
-        <v>22.01464</v>
-      </c>
-      <c r="D324" s="2">
-        <v>149</v>
+        <v>31.78795109311058</v>
+      </c>
+      <c r="D324" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6459,13 +6462,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1090.52</v>
+        <v>1410.375</v>
       </c>
       <c r="C325" s="2">
-        <v>23.64662</v>
-      </c>
-      <c r="D325" s="2">
-        <v>18</v>
+        <v>28.85334135598735</v>
+      </c>
+      <c r="D325" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6473,13 +6476,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>74.95999999999999</v>
+        <v>276.65</v>
       </c>
       <c r="C326" s="2">
-        <v>82.73588000000001</v>
-      </c>
-      <c r="D326" s="2">
-        <v>264</v>
+        <v>311.2604979378506</v>
+      </c>
+      <c r="D326" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6492,7 +6495,7 @@
       <c r="C327" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6506,7 +6509,7 @@
       <c r="C328" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D328" s="2" t="s">
+      <c r="D328" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6520,7 +6523,7 @@
       <c r="C329" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D329" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6529,13 +6532,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>18.68</v>
+        <v>23.305</v>
       </c>
       <c r="C330" s="2">
-        <v>7.94694</v>
-      </c>
-      <c r="D330" s="2">
-        <v>1060</v>
+        <v>11.04910014228386</v>
+      </c>
+      <c r="D330" s="3">
+        <v>84</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,13 +6546,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>53.97</v>
+        <v>98.13</v>
       </c>
       <c r="C331" s="2">
-        <v>31.13878</v>
-      </c>
-      <c r="D331" s="2">
-        <v>366</v>
+        <v>55.64921421963612</v>
+      </c>
+      <c r="D331" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6557,13 +6560,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>59.7</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="C332" s="2">
-        <v>122.48695</v>
-      </c>
-      <c r="D332" s="2">
-        <v>331</v>
+        <v>166.6920758345552</v>
+      </c>
+      <c r="D332" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6574,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>39.08</v>
+        <v>105.24</v>
       </c>
       <c r="C333" s="2">
-        <v>45.03937999999999</v>
-      </c>
-      <c r="D333" s="2">
-        <v>506</v>
+        <v>114.4516581240367</v>
+      </c>
+      <c r="D333" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6588,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>453.76</v>
+        <v>93.285</v>
       </c>
       <c r="C334" s="2">
-        <v>198.60153</v>
-      </c>
-      <c r="D334" s="2">
-        <v>43</v>
+        <v>426.0140270203418</v>
+      </c>
+      <c r="D334" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6602,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>26.3</v>
+        <v>41.645</v>
       </c>
       <c r="C335" s="2">
-        <v>10.87283</v>
-      </c>
-      <c r="D335" s="2">
-        <v>752</v>
+        <v>19.77975514736637</v>
+      </c>
+      <c r="D335" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6616,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>115.91</v>
+        <v>57.2063</v>
       </c>
       <c r="C336" s="2">
-        <v>176.4046</v>
-      </c>
-      <c r="D336" s="2">
-        <v>170</v>
+        <v>84.58269415439347</v>
+      </c>
+      <c r="D336" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6632,7 +6635,7 @@
       <c r="C337" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="D337" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6646,7 +6649,7 @@
       <c r="C338" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D338" s="2" t="s">
+      <c r="D338" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6655,13 +6658,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>476.25</v>
+        <v>579.63</v>
       </c>
       <c r="C339" s="2">
-        <v>71.81497999999999</v>
-      </c>
-      <c r="D339" s="2">
-        <v>41</v>
+        <v>83.44271482391575</v>
+      </c>
+      <c r="D339" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6669,13 +6672,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>18.92</v>
+        <v>15.725</v>
       </c>
       <c r="C340" s="2">
-        <v>7.4531</v>
-      </c>
-      <c r="D340" s="2">
-        <v>1046</v>
+        <v>5.763095353158903</v>
+      </c>
+      <c r="D340" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,13 +6686,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>699.08</v>
+        <v>154.465</v>
       </c>
       <c r="C341" s="2">
-        <v>143.3114</v>
-      </c>
-      <c r="D341" s="2">
-        <v>28</v>
+        <v>162.6950596931206</v>
+      </c>
+      <c r="D341" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6697,13 +6700,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>47.81</v>
+        <v>158.545</v>
       </c>
       <c r="C342" s="2">
-        <v>10.7938</v>
-      </c>
-      <c r="D342" s="2">
-        <v>414</v>
+        <v>30.07972031041844</v>
+      </c>
+      <c r="D342" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,13 +6714,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>221</v>
+        <v>291.8</v>
       </c>
       <c r="C343" s="2">
-        <v>49.97613</v>
-      </c>
-      <c r="D343" s="2">
-        <v>89</v>
+        <v>71.35698500914451</v>
+      </c>
+      <c r="D343" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6725,13 +6728,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>89.39</v>
+        <v>109.99</v>
       </c>
       <c r="C344" s="2">
-        <v>18.41712</v>
-      </c>
-      <c r="D344" s="2">
-        <v>221</v>
+        <v>21.96489294978463</v>
+      </c>
+      <c r="D344" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6742,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>80.39</v>
+        <v>140.01</v>
       </c>
       <c r="C345" s="2">
-        <v>16.64365</v>
-      </c>
-      <c r="D345" s="2">
-        <v>246</v>
+        <v>26.52560367776595</v>
+      </c>
+      <c r="D345" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6756,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>162.09</v>
+        <v>163.96</v>
       </c>
       <c r="C346" s="2">
-        <v>39.84804</v>
-      </c>
-      <c r="D346" s="2">
-        <v>122</v>
+        <v>37.59232169469983</v>
+      </c>
+      <c r="D346" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,13 +6770,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>475.06</v>
+        <v>188.7266</v>
       </c>
       <c r="C347" s="2">
-        <v>1173.3982</v>
-      </c>
-      <c r="D347" s="2">
-        <v>41</v>
+        <v>4463.667135475308</v>
+      </c>
+      <c r="D347" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6781,13 +6784,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>6535.89</v>
+        <v>7318.62</v>
       </c>
       <c r="C348" s="2">
-        <v>20.77779</v>
-      </c>
-      <c r="D348" s="2">
-        <v>3</v>
+        <v>21.00347716155665</v>
+      </c>
+      <c r="D348" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6795,13 +6798,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>8.42</v>
+        <v>3.655</v>
       </c>
       <c r="C349" s="2">
-        <v>3.48756</v>
-      </c>
-      <c r="D349" s="2">
-        <v>2351</v>
+        <v>1.563616057153226</v>
+      </c>
+      <c r="D349" s="3">
+        <v>541</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6812,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>22.94</v>
+        <v>30.06</v>
       </c>
       <c r="C350" s="2">
-        <v>12.74226</v>
-      </c>
-      <c r="D350" s="2">
-        <v>863</v>
+        <v>15.44978127160276</v>
+      </c>
+      <c r="D350" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6826,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>21.94</v>
+        <v>26.35</v>
       </c>
       <c r="C351" s="2">
-        <v>12.74226</v>
-      </c>
-      <c r="D351" s="2">
-        <v>902</v>
+        <v>15.44978127160276</v>
+      </c>
+      <c r="D351" s="3">
+        <v>75</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6840,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>53.86</v>
+        <v>56.125</v>
       </c>
       <c r="C352" s="2">
-        <v>38.99053</v>
-      </c>
-      <c r="D352" s="2">
-        <v>367</v>
+        <v>51.818293242</v>
+      </c>
+      <c r="D352" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,13 +6854,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>369.45</v>
+        <v>158.37</v>
       </c>
       <c r="C353" s="2">
-        <v>40.31204</v>
-      </c>
-      <c r="D353" s="2">
-        <v>53</v>
+        <v>33.30938047824513</v>
+      </c>
+      <c r="D353" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6865,13 +6868,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>68.23999999999999</v>
+        <v>73.4513</v>
       </c>
       <c r="C354" s="2">
-        <v>39.75326</v>
-      </c>
-      <c r="D354" s="2">
-        <v>290</v>
+        <v>45.82064156600028</v>
+      </c>
+      <c r="D354" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,13 +6882,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>81.94</v>
+        <v>78.535</v>
       </c>
       <c r="C355" s="2">
-        <v>16.21873</v>
-      </c>
-      <c r="D355" s="2">
-        <v>241</v>
+        <v>25.17565893038464</v>
+      </c>
+      <c r="D355" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6896,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>113.61</v>
+        <v>194.5</v>
       </c>
       <c r="C356" s="2">
-        <v>311.22051</v>
-      </c>
-      <c r="D356" s="2">
-        <v>174</v>
+        <v>569.9715097769454</v>
+      </c>
+      <c r="D356" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,13 +6910,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>945.88</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C357" s="2">
-        <v>55.96032</v>
-      </c>
-      <c r="D357" s="2">
-        <v>20</v>
+        <v>77.44654795870879</v>
+      </c>
+      <c r="D357" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6921,13 +6924,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>87.5</v>
+        <v>87.73999999999999</v>
       </c>
       <c r="C358" s="2">
-        <v>35.81015</v>
-      </c>
-      <c r="D358" s="2">
-        <v>226</v>
+        <v>33.99880987318263</v>
+      </c>
+      <c r="D358" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6938,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>56.47</v>
+        <v>40.1802</v>
       </c>
       <c r="C359" s="2">
-        <v>49.71454</v>
-      </c>
-      <c r="D359" s="2">
-        <v>350</v>
+        <v>39.67442372073247</v>
+      </c>
+      <c r="D359" s="3">
+        <v>49</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,13 +6952,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>186.57</v>
+        <v>159.9</v>
       </c>
       <c r="C360" s="2">
-        <v>11.23677</v>
-      </c>
-      <c r="D360" s="2">
-        <v>106</v>
+        <v>9.308018847153759</v>
+      </c>
+      <c r="D360" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6963,13 +6966,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>124.02</v>
+        <v>113.89</v>
       </c>
       <c r="C361" s="2">
-        <v>44.80004</v>
-      </c>
-      <c r="D361" s="2">
-        <v>159</v>
+        <v>41.34464122992233</v>
+      </c>
+      <c r="D361" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6982,7 +6985,7 @@
       <c r="C362" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D362" s="2" t="s">
+      <c r="D362" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6991,27 +6994,27 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>95.38</v>
+        <v>112.14</v>
       </c>
       <c r="C363" s="2">
-        <v>49.89097</v>
-      </c>
-      <c r="D363" s="2">
-        <v>207</v>
+        <v>59.24830207689254</v>
+      </c>
+      <c r="D363" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B364" s="2">
-        <v>18.75</v>
+      <c r="B364" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C364" s="2">
-        <v>10.25764</v>
-      </c>
-      <c r="D364" s="2">
-        <v>1056</v>
+        <v>13.546259235</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,13 +7022,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>62.57</v>
+        <v>80.215</v>
       </c>
       <c r="C365" s="2">
-        <v>31.17953</v>
-      </c>
-      <c r="D365" s="2">
-        <v>316</v>
+        <v>40.29170882189727</v>
+      </c>
+      <c r="D365" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7036,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>165.68</v>
+        <v>143.995</v>
       </c>
       <c r="C366" s="2">
-        <v>227.78746</v>
-      </c>
-      <c r="D366" s="2">
-        <v>119</v>
+        <v>201.0673648939285</v>
+      </c>
+      <c r="D366" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7050,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>28.78</v>
+        <v>24.92</v>
       </c>
       <c r="C367" s="2">
-        <v>162.50377</v>
-      </c>
-      <c r="D367" s="2">
-        <v>688</v>
+        <v>143.3366896058011</v>
+      </c>
+      <c r="D367" s="3">
+        <v>79</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7064,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>75.15000000000001</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C368" s="2">
-        <v>17.91667</v>
-      </c>
-      <c r="D368" s="2">
-        <v>263</v>
+        <v>19.60547829263586</v>
+      </c>
+      <c r="D368" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,13 +7078,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>145.15</v>
+        <v>143.43</v>
       </c>
       <c r="C369" s="2">
-        <v>342.10203</v>
-      </c>
-      <c r="D369" s="2">
-        <v>136</v>
+        <v>333.4285041195392</v>
+      </c>
+      <c r="D369" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7089,13 +7092,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>161.17</v>
+        <v>227.31</v>
       </c>
       <c r="C370" s="2">
-        <v>94.29104</v>
-      </c>
-      <c r="D370" s="2">
-        <v>122</v>
+        <v>133.3232843618876</v>
+      </c>
+      <c r="D370" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,13 +7106,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>438.63</v>
+        <v>886.5650000000001</v>
       </c>
       <c r="C371" s="2">
-        <v>56.35335</v>
-      </c>
-      <c r="D371" s="2">
-        <v>45</v>
+        <v>111.8607226742326</v>
+      </c>
+      <c r="D371" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7117,13 +7120,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>96.31</v>
+        <v>116.8</v>
       </c>
       <c r="C372" s="2">
-        <v>20.76395</v>
-      </c>
-      <c r="D372" s="2">
-        <v>205</v>
+        <v>23.21654798501929</v>
+      </c>
+      <c r="D372" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7134,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>163.88</v>
+        <v>207.51</v>
       </c>
       <c r="C373" s="2">
-        <v>14.68763</v>
-      </c>
-      <c r="D373" s="2">
-        <v>120</v>
+        <v>18.58476523791317</v>
+      </c>
+      <c r="D373" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7150,7 +7153,7 @@
       <c r="C374" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="D374" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7159,13 +7162,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>119.85</v>
+        <v>127.86</v>
       </c>
       <c r="C375" s="2">
-        <v>110.73792</v>
-      </c>
-      <c r="D375" s="2">
-        <v>165</v>
+        <v>120.985682581</v>
+      </c>
+      <c r="D375" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7173,13 +7176,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>91.31</v>
+        <v>162.16</v>
       </c>
       <c r="C376" s="2">
-        <v>141.75019</v>
-      </c>
-      <c r="D376" s="2">
-        <v>216</v>
+        <v>248.5952095887363</v>
+      </c>
+      <c r="D376" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7187,13 +7190,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>140.67</v>
+        <v>212.33</v>
       </c>
       <c r="C377" s="2">
-        <v>56.03464</v>
-      </c>
-      <c r="D377" s="2">
-        <v>140</v>
+        <v>83.49053221023883</v>
+      </c>
+      <c r="D377" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7204,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>67.41</v>
+        <v>105.69</v>
       </c>
       <c r="C378" s="2">
-        <v>11.1428</v>
-      </c>
-      <c r="D378" s="2">
-        <v>293</v>
+        <v>17.22658076577366</v>
+      </c>
+      <c r="D378" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7218,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>75.3</v>
+        <v>88.16</v>
       </c>
       <c r="C379" s="2">
-        <v>8.5389</v>
-      </c>
-      <c r="D379" s="2">
-        <v>262</v>
+        <v>10.49565147030893</v>
+      </c>
+      <c r="D379" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7232,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>143.98</v>
+        <v>102.8733</v>
       </c>
       <c r="C380" s="2">
-        <v>33.95048000000001</v>
-      </c>
-      <c r="D380" s="2">
-        <v>137</v>
+        <v>23.19622743825029</v>
+      </c>
+      <c r="D380" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7246,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>26.06</v>
+        <v>34.765</v>
       </c>
       <c r="C381" s="2">
-        <v>19.20946</v>
-      </c>
-      <c r="D381" s="2">
-        <v>759</v>
+        <v>25.65415602944882</v>
+      </c>
+      <c r="D381" s="3">
+        <v>56</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7260,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>29.65</v>
+        <v>13.5036</v>
       </c>
       <c r="C382" s="2">
-        <v>4.01777</v>
-      </c>
-      <c r="D382" s="2">
-        <v>667</v>
+        <v>1.851042845748299</v>
+      </c>
+      <c r="D382" s="3">
+        <v>146</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7274,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>100.87</v>
+        <v>114.28</v>
       </c>
       <c r="C383" s="2">
-        <v>36.41407</v>
-      </c>
-      <c r="D383" s="2">
-        <v>196</v>
+        <v>40.19399925297574</v>
+      </c>
+      <c r="D383" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,13 +7288,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>273.81</v>
+        <v>260.545</v>
       </c>
       <c r="C384" s="2">
-        <v>48.1457</v>
-      </c>
-      <c r="D384" s="2">
-        <v>72</v>
+        <v>45.471238669</v>
+      </c>
+      <c r="D384" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7299,13 +7302,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>125.32</v>
+        <v>129.05</v>
       </c>
       <c r="C385" s="2">
-        <v>55.13523</v>
-      </c>
-      <c r="D385" s="2">
-        <v>158</v>
+        <v>51.9727939990156</v>
+      </c>
+      <c r="D385" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7316,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>108.26</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C386" s="2">
-        <v>6.541600000000001</v>
-      </c>
-      <c r="D386" s="2">
-        <v>182</v>
+        <v>3.178707049711048</v>
+      </c>
+      <c r="D386" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,27 +7330,27 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>199.25</v>
+        <v>435.71</v>
       </c>
       <c r="C387" s="2">
-        <v>28.94801</v>
-      </c>
-      <c r="D387" s="2">
-        <v>99</v>
+        <v>64.57165461865569</v>
+      </c>
+      <c r="D387" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B388" s="2">
-        <v>223.05</v>
-      </c>
-      <c r="C388" s="2">
-        <v>52.03955000000001</v>
-      </c>
-      <c r="D388" s="2">
-        <v>88</v>
+      <c r="B388" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,13 +7358,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>58.94</v>
+        <v>59.25</v>
       </c>
       <c r="C389" s="2">
-        <v>63.54558</v>
-      </c>
-      <c r="D389" s="2">
-        <v>335</v>
+        <v>56.00812500789934</v>
+      </c>
+      <c r="D389" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7369,13 +7372,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>132.97</v>
+        <v>174.745</v>
       </c>
       <c r="C390" s="2">
-        <v>147.99561</v>
-      </c>
-      <c r="D390" s="2">
-        <v>148</v>
+        <v>186.58962</v>
+      </c>
+      <c r="D390" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7386,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>103.97</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="C391" s="2">
-        <v>10.12104</v>
-      </c>
-      <c r="D391" s="2">
-        <v>190</v>
+        <v>7.988458716748804</v>
+      </c>
+      <c r="D391" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7400,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>120.47</v>
+        <v>293.87</v>
       </c>
       <c r="C392" s="2">
-        <v>30.86864</v>
-      </c>
-      <c r="D392" s="2">
-        <v>164</v>
+        <v>82.01297410746442</v>
+      </c>
+      <c r="D392" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7416,7 +7419,7 @@
       <c r="C393" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D393" s="2" t="s">
+      <c r="D393" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7425,13 +7428,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>63.96</v>
+        <v>68.95</v>
       </c>
       <c r="C394" s="2">
-        <v>11.8058</v>
-      </c>
-      <c r="D394" s="2">
-        <v>309</v>
+        <v>12.537863129</v>
+      </c>
+      <c r="D394" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,13 +7442,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>840.14</v>
+        <v>779.75</v>
       </c>
       <c r="C395" s="2">
-        <v>91.53072</v>
-      </c>
-      <c r="D395" s="2">
-        <v>23</v>
+        <v>81.91032069619062</v>
+      </c>
+      <c r="D395" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7453,13 +7456,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>17.44</v>
+        <v>27.64</v>
       </c>
       <c r="C396" s="2">
-        <v>16.22033</v>
-      </c>
-      <c r="D396" s="2">
-        <v>1135</v>
+        <v>24.39470481536659</v>
+      </c>
+      <c r="D396" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7470,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>83.09</v>
+        <v>27.275</v>
       </c>
       <c r="C397" s="2">
-        <v>8.79881</v>
-      </c>
-      <c r="D397" s="2">
-        <v>238</v>
+        <v>2.815005504567132</v>
+      </c>
+      <c r="D397" s="3">
+        <v>72</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,13 +7484,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>107.05</v>
+        <v>165.735</v>
       </c>
       <c r="C398" s="2">
-        <v>22.33135</v>
-      </c>
-      <c r="D398" s="2">
-        <v>184</v>
+        <v>32.64787209965033</v>
+      </c>
+      <c r="D398" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7495,13 +7498,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>131.76</v>
+        <v>361.32</v>
       </c>
       <c r="C399" s="2">
-        <v>8.51605</v>
-      </c>
-      <c r="D399" s="2">
-        <v>150</v>
+        <v>22.28019172544948</v>
+      </c>
+      <c r="D399" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,13 +7512,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>162.87</v>
+        <v>244.6</v>
       </c>
       <c r="C400" s="2">
-        <v>23.95686</v>
-      </c>
-      <c r="D400" s="2">
-        <v>121</v>
+        <v>36.00550593598767</v>
+      </c>
+      <c r="D400" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7523,13 +7526,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>278.53</v>
+        <v>398.72</v>
       </c>
       <c r="C401" s="2">
-        <v>31.93974</v>
-      </c>
-      <c r="D401" s="2">
-        <v>71</v>
+        <v>44.75224333367369</v>
+      </c>
+      <c r="D401" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7537,13 +7540,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>41.43</v>
+        <v>60.71</v>
       </c>
       <c r="C402" s="2">
-        <v>20.05369</v>
-      </c>
-      <c r="D402" s="2">
-        <v>477</v>
+        <v>29.63020640783616</v>
+      </c>
+      <c r="D402" s="3">
+        <v>32</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,13 +7554,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>536.6</v>
+        <v>448.34</v>
       </c>
       <c r="C403" s="2">
-        <v>57.32075</v>
-      </c>
-      <c r="D403" s="2">
-        <v>36</v>
+        <v>48.35611359542742</v>
+      </c>
+      <c r="D403" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7565,13 +7568,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>132.08</v>
+        <v>180.37</v>
       </c>
       <c r="C404" s="2">
-        <v>44.46688</v>
-      </c>
-      <c r="D404" s="2">
-        <v>149</v>
+        <v>58.44003406868681</v>
+      </c>
+      <c r="D404" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,13 +7582,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>161.79</v>
+        <v>213.31</v>
       </c>
       <c r="C405" s="2">
-        <v>50.90504</v>
-      </c>
-      <c r="D405" s="2">
-        <v>122</v>
+        <v>65.91228123249545</v>
+      </c>
+      <c r="D405" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7596,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>81.31999999999999</v>
+        <v>185.525</v>
       </c>
       <c r="C406" s="2">
-        <v>116.93013</v>
-      </c>
-      <c r="D406" s="2">
-        <v>243</v>
+        <v>248.9545323691393</v>
+      </c>
+      <c r="D406" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7610,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>244.18</v>
+        <v>190.86</v>
       </c>
       <c r="C407" s="2">
-        <v>26.34386</v>
-      </c>
-      <c r="D407" s="2">
-        <v>81</v>
+        <v>20.244969684</v>
+      </c>
+      <c r="D407" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7624,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>96.61</v>
+        <v>83.81</v>
       </c>
       <c r="C408" s="2">
-        <v>109.81659</v>
-      </c>
-      <c r="D408" s="2">
-        <v>204</v>
+        <v>97.98390692780957</v>
+      </c>
+      <c r="D408" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7638,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>64.06999999999999</v>
+        <v>101.19</v>
       </c>
       <c r="C409" s="2">
-        <v>116.7724</v>
-      </c>
-      <c r="D409" s="2">
-        <v>309</v>
+        <v>180.1991570438201</v>
+      </c>
+      <c r="D409" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7652,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>33.81</v>
+        <v>41.255</v>
       </c>
       <c r="C410" s="2">
-        <v>4.88337</v>
-      </c>
-      <c r="D410" s="2">
-        <v>585</v>
+        <v>6.07035787102954</v>
+      </c>
+      <c r="D410" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,13 +7666,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>289.82</v>
+        <v>322.4501</v>
       </c>
       <c r="C411" s="2">
-        <v>74.18409</v>
-      </c>
-      <c r="D411" s="2">
-        <v>68</v>
+        <v>80.27783026083002</v>
+      </c>
+      <c r="D411" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7682,7 +7685,7 @@
       <c r="C412" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D412" s="2" t="s">
+      <c r="D412" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7691,13 +7694,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>119.33</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="C413" s="2">
-        <v>12.66614</v>
-      </c>
-      <c r="D413" s="2">
-        <v>165</v>
+        <v>10.57874291323488</v>
+      </c>
+      <c r="D413" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7708,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>48.8</v>
+        <v>38.17</v>
       </c>
       <c r="C414" s="2">
-        <v>69.70878999999999</v>
-      </c>
-      <c r="D414" s="2">
-        <v>405</v>
+        <v>57.26209372795746</v>
+      </c>
+      <c r="D414" s="3">
+        <v>51</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7722,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>42.49</v>
+        <v>44.43</v>
       </c>
       <c r="C415" s="2">
-        <v>2.73707</v>
-      </c>
-      <c r="D415" s="2">
-        <v>466</v>
+        <v>3.363568037</v>
+      </c>
+      <c r="D415" s="3">
+        <v>44</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,13 +7736,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>278.22</v>
+        <v>352.32</v>
       </c>
       <c r="C416" s="2">
-        <v>14.68444</v>
-      </c>
-      <c r="D416" s="2">
-        <v>71</v>
+        <v>18.20420501835708</v>
+      </c>
+      <c r="D416" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7747,13 +7750,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>535.9299999999999</v>
+        <v>474.23</v>
       </c>
       <c r="C417" s="2">
-        <v>81.48975999999999</v>
-      </c>
-      <c r="D417" s="2">
-        <v>36</v>
+        <v>89.38969326426084</v>
+      </c>
+      <c r="D417" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7761,13 +7764,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>71.5</v>
+        <v>86.705</v>
       </c>
       <c r="C418" s="2">
-        <v>77.97928</v>
-      </c>
-      <c r="D418" s="2">
-        <v>276</v>
+        <v>94.38670711075986</v>
+      </c>
+      <c r="D418" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,13 +7778,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>132.88</v>
+        <v>187.34</v>
       </c>
       <c r="C419" s="2">
-        <v>43.35176</v>
-      </c>
-      <c r="D419" s="2">
-        <v>149</v>
+        <v>60.372627595</v>
+      </c>
+      <c r="D419" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,13 +7792,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>415.38</v>
+        <v>526.3541</v>
       </c>
       <c r="C420" s="2">
-        <v>131.59238</v>
-      </c>
-      <c r="D420" s="2">
-        <v>47</v>
+        <v>157.9646901082091</v>
+      </c>
+      <c r="D420" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7803,13 +7806,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>72.38</v>
+        <v>88.705</v>
       </c>
       <c r="C421" s="2">
-        <v>45.55076</v>
-      </c>
-      <c r="D421" s="2">
-        <v>273</v>
+        <v>57.49471658442064</v>
+      </c>
+      <c r="D421" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7820,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>200.5</v>
+        <v>255.12</v>
       </c>
       <c r="C422" s="2">
-        <v>19.80943</v>
-      </c>
-      <c r="D422" s="2">
-        <v>98</v>
+        <v>25.04024650541731</v>
+      </c>
+      <c r="D422" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7834,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>73.97</v>
+        <v>130.665</v>
       </c>
       <c r="C423" s="2">
-        <v>22.82592</v>
-      </c>
-      <c r="D423" s="2">
-        <v>267</v>
+        <v>36.55361888734701</v>
+      </c>
+      <c r="D423" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7848,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>80.59</v>
+        <v>279.355</v>
       </c>
       <c r="C424" s="2">
-        <v>16.85814</v>
-      </c>
-      <c r="D424" s="2">
-        <v>245</v>
+        <v>60.40490714574437</v>
+      </c>
+      <c r="D424" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,13 +7862,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>234.44</v>
+        <v>140.04</v>
       </c>
       <c r="C425" s="2">
-        <v>43.05788</v>
-      </c>
-      <c r="D425" s="2">
-        <v>84</v>
+        <v>24.67182834693579</v>
+      </c>
+      <c r="D425" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7873,13 +7876,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>92.84999999999999</v>
+        <v>74.52</v>
       </c>
       <c r="C426" s="2">
-        <v>14.23496</v>
-      </c>
-      <c r="D426" s="2">
-        <v>213</v>
+        <v>11.65354469032577</v>
+      </c>
+      <c r="D426" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7890,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>103.78</v>
+        <v>64.47499999999999</v>
       </c>
       <c r="C427" s="2">
-        <v>16.60012</v>
-      </c>
-      <c r="D427" s="2">
-        <v>190</v>
+        <v>9.699867836121209</v>
+      </c>
+      <c r="D427" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7904,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>35.29</v>
+        <v>85.58</v>
       </c>
       <c r="C428" s="2">
-        <v>14.60316</v>
-      </c>
-      <c r="D428" s="2">
-        <v>561</v>
+        <v>30.92068746192429</v>
+      </c>
+      <c r="D428" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,13 +7918,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>289.1</v>
+        <v>355.4</v>
       </c>
       <c r="C429" s="2">
-        <v>109.84012</v>
-      </c>
-      <c r="D429" s="2">
-        <v>68</v>
+        <v>136.3416826077733</v>
+      </c>
+      <c r="D429" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7929,13 +7932,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>73.83</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="C430" s="2">
-        <v>37.23778</v>
-      </c>
-      <c r="D430" s="2">
-        <v>268</v>
+        <v>35.71345634357632</v>
+      </c>
+      <c r="D430" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7946,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>16.92</v>
+        <v>24.49</v>
       </c>
       <c r="C431" s="2">
-        <v>120.97834</v>
-      </c>
-      <c r="D431" s="2">
-        <v>1170</v>
+        <v>172.2736251592547</v>
+      </c>
+      <c r="D431" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7960,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>62.31</v>
+        <v>46.175</v>
       </c>
       <c r="C432" s="2">
-        <v>12.68797</v>
-      </c>
-      <c r="D432" s="2">
-        <v>317</v>
+        <v>9.217734442920511</v>
+      </c>
+      <c r="D432" s="3">
+        <v>42</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,13 +7974,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>983.92</v>
+        <v>1316.175</v>
       </c>
       <c r="C433" s="2">
-        <v>54.42465</v>
-      </c>
-      <c r="D433" s="2">
-        <v>20</v>
+        <v>73.31496751728845</v>
+      </c>
+      <c r="D433" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7985,13 +7988,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>411.49</v>
+        <v>516.55</v>
       </c>
       <c r="C434" s="2">
-        <v>19.41603</v>
-      </c>
-      <c r="D434" s="2">
-        <v>48</v>
+        <v>24.32718578700759</v>
+      </c>
+      <c r="D434" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7999,13 +8002,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>133.32</v>
+        <v>232.695</v>
       </c>
       <c r="C435" s="2">
-        <v>41.43309</v>
-      </c>
-      <c r="D435" s="2">
-        <v>148</v>
+        <v>68.69612804015324</v>
+      </c>
+      <c r="D435" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8013,13 +8016,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>34.33</v>
+        <v>50.475</v>
       </c>
       <c r="C436" s="2">
-        <v>45.78483</v>
-      </c>
-      <c r="D436" s="2">
-        <v>576</v>
+        <v>64.67869103704794</v>
+      </c>
+      <c r="D436" s="3">
+        <v>39</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,13 +8030,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>231.08</v>
+        <v>121.72</v>
       </c>
       <c r="C437" s="2">
-        <v>10.85906</v>
-      </c>
-      <c r="D437" s="2">
-        <v>85</v>
+        <v>5.501761401390597</v>
+      </c>
+      <c r="D437" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8041,13 +8044,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>135.19</v>
+        <v>94.22</v>
       </c>
       <c r="C438" s="2">
-        <v>62.41206</v>
-      </c>
-      <c r="D438" s="2">
-        <v>146</v>
+        <v>43.10716988513825</v>
+      </c>
+      <c r="D438" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8060,7 +8063,7 @@
       <c r="C439" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D439" s="2" t="s">
+      <c r="D439" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8069,13 +8072,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>89.13</v>
+        <v>156.165</v>
       </c>
       <c r="C440" s="2">
-        <v>101.57939</v>
-      </c>
-      <c r="D440" s="2">
-        <v>222</v>
+        <v>173.8769552607166</v>
+      </c>
+      <c r="D440" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,13 +8086,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>489.77</v>
+        <v>579.2</v>
       </c>
       <c r="C441" s="2">
-        <v>189.23357</v>
-      </c>
-      <c r="D441" s="2">
-        <v>40</v>
+        <v>216.295141745828</v>
+      </c>
+      <c r="D441" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8097,13 +8100,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>156.4</v>
+        <v>196.96</v>
       </c>
       <c r="C442" s="2">
-        <v>180.8727</v>
-      </c>
-      <c r="D442" s="2">
-        <v>126</v>
+        <v>218.9588456545214</v>
+      </c>
+      <c r="D442" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8114,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>33.53</v>
+        <v>129.71</v>
       </c>
       <c r="C443" s="2">
-        <v>7.68462</v>
-      </c>
-      <c r="D443" s="2">
-        <v>590</v>
+        <v>26.39367784103652</v>
+      </c>
+      <c r="D443" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8128,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>98.44</v>
+        <v>104.33</v>
       </c>
       <c r="C444" s="2">
-        <v>21.99842</v>
-      </c>
-      <c r="D444" s="2">
-        <v>201</v>
+        <v>22.87123727833463</v>
+      </c>
+      <c r="D444" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,13 +8142,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>181.26</v>
+        <v>292.135</v>
       </c>
       <c r="C445" s="2">
-        <v>41.39968</v>
-      </c>
-      <c r="D445" s="2">
-        <v>109</v>
+        <v>65.05421748703426</v>
+      </c>
+      <c r="D445" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8153,13 +8156,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>212.07</v>
+        <v>51.1</v>
       </c>
       <c r="C446" s="2">
-        <v>22.92778</v>
-      </c>
-      <c r="D446" s="2">
-        <v>93</v>
+        <v>27.32903632117354</v>
+      </c>
+      <c r="D446" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8167,13 +8170,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>51.38</v>
+        <v>57.71</v>
       </c>
       <c r="C447" s="2">
-        <v>18.25222</v>
-      </c>
-      <c r="D447" s="2">
-        <v>385</v>
+        <v>20.29272168675765</v>
+      </c>
+      <c r="D447" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,13 +8184,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>234</v>
+        <v>393.4</v>
       </c>
       <c r="C448" s="2">
-        <v>53.24833</v>
-      </c>
-      <c r="D448" s="2">
-        <v>84</v>
+        <v>86.4471651089266</v>
+      </c>
+      <c r="D448" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8195,13 +8198,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>155.32</v>
+        <v>248.77</v>
       </c>
       <c r="C449" s="2">
-        <v>26.4149</v>
-      </c>
-      <c r="D449" s="2">
-        <v>127</v>
+        <v>45.93231889976532</v>
+      </c>
+      <c r="D449" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8214,7 +8217,7 @@
       <c r="C450" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D450" s="2" t="s">
+      <c r="D450" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8223,13 +8226,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>157.03</v>
+        <v>177.34</v>
       </c>
       <c r="C451" s="2">
-        <v>142.61529</v>
-      </c>
-      <c r="D451" s="2">
-        <v>126</v>
+        <v>162.4799561396214</v>
+      </c>
+      <c r="D451" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8237,13 +8240,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>75.93000000000001</v>
+        <v>90.655</v>
       </c>
       <c r="C452" s="2">
-        <v>14.88269</v>
-      </c>
-      <c r="D452" s="2">
-        <v>260</v>
+        <v>16.01524241473016</v>
+      </c>
+      <c r="D452" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,13 +8254,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>403.07</v>
+        <v>463.895</v>
       </c>
       <c r="C453" s="2">
-        <v>16.979</v>
-      </c>
-      <c r="D453" s="2">
-        <v>49</v>
+        <v>20.00660112824099</v>
+      </c>
+      <c r="D453" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8265,13 +8268,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>7.97</v>
+        <v>4.395</v>
       </c>
       <c r="C454" s="2">
-        <v>3.65939</v>
-      </c>
-      <c r="D454" s="2">
-        <v>2484</v>
+        <v>1.886383643233995</v>
+      </c>
+      <c r="D454" s="3">
+        <v>450</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8282,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>8.460000000000001</v>
+        <v>4.56</v>
       </c>
       <c r="C455" s="2">
-        <v>3.65939</v>
-      </c>
-      <c r="D455" s="2">
-        <v>2340</v>
+        <v>1.886383643233995</v>
+      </c>
+      <c r="D455" s="3">
+        <v>434</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8296,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>40.97</v>
+        <v>113.64</v>
       </c>
       <c r="C456" s="2">
-        <v>13.43885</v>
-      </c>
-      <c r="D456" s="2">
-        <v>483</v>
+        <v>37.56008282106851</v>
+      </c>
+      <c r="D456" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8310,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>35.37</v>
+        <v>36.02</v>
       </c>
       <c r="C457" s="2">
-        <v>11.63419</v>
-      </c>
-      <c r="D457" s="2">
-        <v>559</v>
+        <v>11.781819607</v>
+      </c>
+      <c r="D457" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8324,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>137.45</v>
+        <v>226.96</v>
       </c>
       <c r="C458" s="2">
-        <v>9.382160000000001</v>
-      </c>
-      <c r="D458" s="2">
-        <v>144</v>
+        <v>14.15819845249345</v>
+      </c>
+      <c r="D458" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8338,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>482.16</v>
+        <v>604.77</v>
       </c>
       <c r="C459" s="2">
-        <v>23.41442</v>
-      </c>
-      <c r="D459" s="2">
-        <v>41</v>
+        <v>27.19179304304894</v>
+      </c>
+      <c r="D459" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,13 +8352,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>549.77</v>
+        <v>324.31</v>
       </c>
       <c r="C460" s="2">
-        <v>508.49618</v>
-      </c>
-      <c r="D460" s="2">
-        <v>36</v>
+        <v>294.5424987489597</v>
+      </c>
+      <c r="D460" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8363,13 +8366,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>42.83</v>
+        <v>79.58</v>
       </c>
       <c r="C461" s="2">
-        <v>8.353809999999999</v>
-      </c>
-      <c r="D461" s="2">
-        <v>462</v>
+        <v>13.16646049159459</v>
+      </c>
+      <c r="D461" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8380,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>229.77</v>
+        <v>234.09</v>
       </c>
       <c r="C462" s="2">
-        <v>140.06722</v>
-      </c>
-      <c r="D462" s="2">
-        <v>86</v>
+        <v>139.1614735525833</v>
+      </c>
+      <c r="D462" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8394,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>156.3</v>
+        <v>100.05</v>
       </c>
       <c r="C463" s="2">
-        <v>133.15597</v>
-      </c>
-      <c r="D463" s="2">
-        <v>126</v>
+        <v>85.45787957658104</v>
+      </c>
+      <c r="D463" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,13 +8408,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>495.06</v>
+        <v>818.26</v>
       </c>
       <c r="C464" s="2">
-        <v>33.55587999999999</v>
-      </c>
-      <c r="D464" s="2">
-        <v>39</v>
+        <v>51.96865118704896</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8419,13 +8422,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>40.43</v>
+        <v>54.57</v>
       </c>
       <c r="C465" s="2">
-        <v>62.95001</v>
-      </c>
-      <c r="D465" s="2">
-        <v>489</v>
+        <v>85.29179784113774</v>
+      </c>
+      <c r="D465" s="3">
+        <v>36</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,13 +8436,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>255.74</v>
+        <v>354</v>
       </c>
       <c r="C466" s="2">
-        <v>514.03791</v>
-      </c>
-      <c r="D466" s="2">
-        <v>77</v>
+        <v>673.2797238805322</v>
+      </c>
+      <c r="D466" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8452,7 +8455,7 @@
       <c r="C467" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D467" s="2" t="s">
+      <c r="D467" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8461,13 +8464,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>18.14</v>
+        <v>18.385</v>
       </c>
       <c r="C468" s="2">
-        <v>7.05434</v>
-      </c>
-      <c r="D468" s="2">
-        <v>1091</v>
+        <v>7.230362046346939</v>
+      </c>
+      <c r="D468" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8480,7 +8483,7 @@
       <c r="C469" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D469" s="2" t="s">
+      <c r="D469" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8489,13 +8492,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>122.74</v>
+        <v>164.72</v>
       </c>
       <c r="C470" s="2">
-        <v>41.78719</v>
-      </c>
-      <c r="D470" s="2">
-        <v>161</v>
+        <v>49.37799217769582</v>
+      </c>
+      <c r="D470" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8503,13 +8506,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>216.03</v>
+        <v>293.37</v>
       </c>
       <c r="C471" s="2">
-        <v>28.70464</v>
-      </c>
-      <c r="D471" s="2">
-        <v>91</v>
+        <v>39.21248727</v>
+      </c>
+      <c r="D471" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8517,13 +8520,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>27.97</v>
+        <v>33.18</v>
       </c>
       <c r="C472" s="2">
-        <v>5.323300000000001</v>
-      </c>
-      <c r="D472" s="2">
-        <v>707</v>
+        <v>6.629732640999999</v>
+      </c>
+      <c r="D472" s="3">
+        <v>59</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8534,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>232.92</v>
+        <v>218.21</v>
       </c>
       <c r="C473" s="2">
-        <v>33.77027</v>
-      </c>
-      <c r="D473" s="2">
-        <v>85</v>
+        <v>30.83478435514755</v>
+      </c>
+      <c r="D473" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,13 +8548,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>212.97</v>
+        <v>245.32</v>
       </c>
       <c r="C474" s="2">
-        <v>21.74424</v>
-      </c>
-      <c r="D474" s="2">
-        <v>92</v>
+        <v>23.13235718204995</v>
+      </c>
+      <c r="D474" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8559,13 +8562,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>350.15</v>
+        <v>458.88</v>
       </c>
       <c r="C475" s="2">
-        <v>90.22777000000001</v>
-      </c>
-      <c r="D475" s="2">
-        <v>56</v>
+        <v>115.5638472988455</v>
+      </c>
+      <c r="D475" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8573,13 +8576,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>46.72</v>
+        <v>79.21720000000001</v>
       </c>
       <c r="C476" s="2">
-        <v>18.79923</v>
-      </c>
-      <c r="D476" s="2">
-        <v>423</v>
+        <v>38.715178788</v>
+      </c>
+      <c r="D476" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8590,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>38.25</v>
+        <v>39.96</v>
       </c>
       <c r="C477" s="2">
-        <v>160.80689</v>
-      </c>
-      <c r="D477" s="2">
-        <v>517</v>
+        <v>176.3308985790117</v>
+      </c>
+      <c r="D477" s="3">
+        <v>49</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8604,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>118.4</v>
+        <v>220.24</v>
       </c>
       <c r="C478" s="2">
-        <v>21.21244</v>
-      </c>
-      <c r="D478" s="2">
-        <v>167</v>
+        <v>36.59168</v>
+      </c>
+      <c r="D478" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,27 +8618,27 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>292.14</v>
+        <v>382.37</v>
       </c>
       <c r="C479" s="2">
-        <v>17.27336</v>
-      </c>
-      <c r="D479" s="2">
-        <v>67</v>
+        <v>23.59778</v>
+      </c>
+      <c r="D479" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B480" s="2">
-        <v>23.16</v>
+      <c r="B480" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C480" s="2">
-        <v>20.00826</v>
-      </c>
-      <c r="D480" s="2">
-        <v>855</v>
+        <v>10.36942</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8646,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>47.86</v>
+        <v>177.28</v>
       </c>
       <c r="C481" s="2">
-        <v>15.51828</v>
-      </c>
-      <c r="D481" s="2">
-        <v>413</v>
+        <v>55.04578</v>
+      </c>
+      <c r="D481" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8660,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>84.06999999999999</v>
+        <v>105.365</v>
       </c>
       <c r="C482" s="2">
-        <v>26.51858</v>
-      </c>
-      <c r="D482" s="2">
-        <v>235</v>
+        <v>34.57227</v>
+      </c>
+      <c r="D482" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8674,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>87.72</v>
+        <v>187.22</v>
       </c>
       <c r="C483" s="2">
-        <v>48.55031</v>
-      </c>
-      <c r="D483" s="2">
-        <v>225</v>
+        <v>139.9217</v>
+      </c>
+      <c r="D483" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8688,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>46.1</v>
+        <v>94.17</v>
       </c>
       <c r="C484" s="2">
-        <v>167.41859</v>
-      </c>
-      <c r="D484" s="2">
-        <v>429</v>
+        <v>283.17682</v>
+      </c>
+      <c r="D484" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8702,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>111.39</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C485" s="2">
-        <v>6.11008</v>
-      </c>
-      <c r="D485" s="2">
-        <v>177</v>
+        <v>4.48628</v>
+      </c>
+      <c r="D485" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8718,7 +8721,7 @@
       <c r="C486" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D486" s="2" t="s">
+      <c r="D486" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8727,13 +8730,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>172.5</v>
+        <v>220.31</v>
       </c>
       <c r="C487" s="2">
-        <v>69.47875999999999</v>
-      </c>
-      <c r="D487" s="2">
-        <v>114</v>
+        <v>86.29008999999999</v>
+      </c>
+      <c r="D487" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8744,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>35.52</v>
+        <v>59.58</v>
       </c>
       <c r="C488" s="2">
-        <v>43.21003</v>
-      </c>
-      <c r="D488" s="2">
-        <v>557</v>
+        <v>77.74279</v>
+      </c>
+      <c r="D488" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8758,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>150.86</v>
+        <v>111.345</v>
       </c>
       <c r="C489" s="2">
-        <v>406.15038</v>
-      </c>
-      <c r="D489" s="2">
-        <v>131</v>
+        <v>915.2939699999999</v>
+      </c>
+      <c r="D489" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,27 +8772,27 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>71.33</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="C490" s="2">
-        <v>18.39401</v>
-      </c>
-      <c r="D490" s="2">
-        <v>277</v>
+        <v>26.9321</v>
+      </c>
+      <c r="D490" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B491" s="2">
-        <v>41.16</v>
+      <c r="B491" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C491" s="2">
-        <v>10.55627</v>
-      </c>
-      <c r="D491" s="2">
-        <v>481</v>
+        <v>13.29721</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,13 +8800,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>342.24</v>
+        <v>276.705</v>
       </c>
       <c r="C492" s="2">
-        <v>25.32222</v>
-      </c>
-      <c r="D492" s="2">
-        <v>57</v>
+        <v>20.2715</v>
+      </c>
+      <c r="D492" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8811,13 +8814,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>11.94</v>
+        <v>9.26</v>
       </c>
       <c r="C493" s="2">
-        <v>4.350449999999999</v>
-      </c>
-      <c r="D493" s="2">
-        <v>1658</v>
+        <v>2.83836</v>
+      </c>
+      <c r="D493" s="3">
+        <v>213</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,13 +8828,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>30.87</v>
+        <v>23.57</v>
       </c>
       <c r="C494" s="2">
-        <v>22.53513</v>
-      </c>
-      <c r="D494" s="2">
-        <v>641</v>
+        <v>15.42643</v>
+      </c>
+      <c r="D494" s="3">
+        <v>84</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8839,13 +8842,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>84.19</v>
+        <v>125.53</v>
       </c>
       <c r="C495" s="2">
-        <v>9.50892</v>
-      </c>
-      <c r="D495" s="2">
-        <v>235</v>
+        <v>13.07167</v>
+      </c>
+      <c r="D495" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,13 +8856,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>60.91</v>
+        <v>74.145</v>
       </c>
       <c r="C496" s="2">
-        <v>33.61113</v>
-      </c>
-      <c r="D496" s="2">
-        <v>325</v>
+        <v>46.00405</v>
+      </c>
+      <c r="D496" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8872,7 +8875,7 @@
       <c r="C497" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D497" s="2" t="s">
+      <c r="D497" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8881,13 +8884,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>99.55</v>
+        <v>119.38</v>
       </c>
       <c r="C498" s="2">
-        <v>394.50848</v>
-      </c>
-      <c r="D498" s="2">
-        <v>198</v>
+        <v>493.99878</v>
+      </c>
+      <c r="D498" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8898,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>31.88</v>
+        <v>11.105</v>
       </c>
       <c r="C499" s="2">
-        <v>6.75411</v>
-      </c>
-      <c r="D499" s="2">
-        <v>621</v>
+        <v>2.24895</v>
+      </c>
+      <c r="D499" s="3">
+        <v>178</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8912,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>15.04</v>
+        <v>2.5</v>
       </c>
       <c r="C500" s="2">
-        <v>1.84851</v>
-      </c>
-      <c r="D500" s="2">
-        <v>1316</v>
+        <v>0.35723</v>
+      </c>
+      <c r="D500" s="3">
+        <v>792</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,13 +8926,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>106.38</v>
+        <v>138.735</v>
       </c>
       <c r="C501" s="2">
-        <v>25.64585</v>
-      </c>
-      <c r="D501" s="2">
-        <v>186</v>
+        <v>34.29749</v>
+      </c>
+      <c r="D501" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8937,13 +8940,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>124.34</v>
+        <v>154.9725</v>
       </c>
       <c r="C502" s="2">
-        <v>34.85352</v>
-      </c>
-      <c r="D502" s="2">
-        <v>159</v>
+        <v>40.49844</v>
+      </c>
+      <c r="D502" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8954,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>117.3</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="C503" s="2">
-        <v>24.51344</v>
-      </c>
-      <c r="D503" s="2">
-        <v>168</v>
+        <v>18.46259</v>
+      </c>
+      <c r="D503" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,13 +8968,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>236.13</v>
+        <v>246.75</v>
       </c>
       <c r="C504" s="2">
-        <v>12.12754</v>
-      </c>
-      <c r="D504" s="2">
-        <v>83</v>
+        <v>13.32618</v>
+      </c>
+      <c r="D504" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8979,13 +8982,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>38.93</v>
+        <v>59.25</v>
       </c>
       <c r="C505" s="2">
-        <v>5.76743</v>
-      </c>
-      <c r="D505" s="2">
-        <v>508</v>
+        <v>8.22803</v>
+      </c>
+      <c r="D505" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,13 +8996,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>184.6</v>
+        <v>123.43</v>
       </c>
       <c r="C506" s="2">
-        <v>84.75239000000001</v>
-      </c>
-      <c r="D506" s="2">
-        <v>107</v>
+        <v>53.06387</v>
+      </c>
+      <c r="D506" s="3">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
